--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nada.abdelfattah\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F0EAD-995C-4531-A065-127AAB29D08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Team Name</t>
   </si>
@@ -77,12 +78,6 @@
     <t>Students &amp; staff can access their schedules</t>
   </si>
   <si>
-    <t>View my schedule</t>
-  </si>
-  <si>
-    <t>I can attend my sessions on time</t>
-  </si>
-  <si>
     <t>Measurment</t>
   </si>
   <si>
@@ -104,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -244,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,7 +250,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,17 +282,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -522,47 +517,47 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>24</v>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>22</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -576,1028 +571,1028 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
@@ -1610,27 +1605,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="6" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="6" width="35.5546875" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="54.85546875" customWidth="1"/>
+    <col min="8" max="8" width="54.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1664,11 +1659,11 @@
         <v>12</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1687,30 +1682,22 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2</v>
-      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="11"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1720,7 +1707,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1730,7 +1717,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1740,7 +1727,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1750,7 +1737,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1760,7 +1747,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1770,7 +1757,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1780,7 +1767,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1790,7 +1777,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1800,7 +1787,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1810,7 +1797,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1820,7 +1807,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1830,7 +1817,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1840,7 +1827,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1850,7 +1837,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1860,7 +1847,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1870,7 +1857,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1880,7 +1867,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1890,7 +1877,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1900,7 +1887,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1910,7 +1897,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1920,7 +1907,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1930,7 +1917,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1940,7 +1927,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1950,7 +1937,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1960,7 +1947,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1970,7 +1957,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1980,7 +1967,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1990,7 +1977,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2000,7 +1987,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2010,7 +1997,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -2020,7 +2007,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2030,7 +2017,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2040,7 +2027,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2050,7 +2037,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2060,7 +2047,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2070,7 +2057,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2080,7 +2067,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2090,7 +2077,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2100,7 +2087,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2110,7 +2097,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -2120,7 +2107,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2130,7 +2117,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2140,7 +2127,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -2150,7 +2137,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2160,7 +2147,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -2170,7 +2157,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -2180,7 +2167,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -2190,7 +2177,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2200,7 +2187,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -2210,7 +2197,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2220,7 +2207,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -2230,7 +2217,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2240,7 +2227,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -2250,7 +2237,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2260,7 +2247,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -2270,7 +2257,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -2280,7 +2267,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -2290,7 +2277,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -2300,7 +2287,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2310,7 +2297,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -2320,7 +2307,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -2330,7 +2317,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -2340,7 +2327,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -2350,7 +2337,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -2360,7 +2347,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -2370,7 +2357,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -2380,7 +2367,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -2390,7 +2377,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2400,7 +2387,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -2410,7 +2397,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -2420,7 +2407,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -2430,7 +2417,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -2440,7 +2427,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -2450,7 +2437,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -2460,7 +2447,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -2470,7 +2457,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -2480,7 +2467,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -2490,7 +2477,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -2500,7 +2487,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -2510,7 +2497,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -2520,7 +2507,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -2530,7 +2517,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -2540,7 +2527,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -2550,7 +2537,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -2560,7 +2547,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -2570,7 +2557,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -2580,7 +2567,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -2590,7 +2577,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -2600,7 +2587,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -2610,7 +2597,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -2620,7 +2607,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -2630,7 +2617,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -2640,7 +2627,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -2650,7 +2637,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -2660,7 +2647,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -2670,7 +2657,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -2680,7 +2667,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -2690,7 +2677,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -2700,7 +2687,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -2710,7 +2697,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -2720,7 +2707,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -2730,7 +2717,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -2740,7 +2727,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -2750,7 +2737,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -2760,7 +2747,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -2770,7 +2757,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -2780,7 +2767,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -2790,7 +2777,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -2800,7 +2787,7 @@
       <c r="G113" s="11"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -2810,7 +2797,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -2820,7 +2807,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -2830,7 +2817,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -2840,7 +2827,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -2850,7 +2837,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -2860,7 +2847,7 @@
       <c r="G119" s="11"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -2872,10 +2859,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G120">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G120" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D1:D120">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D120" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2885,7 +2872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2895,16 +2882,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="93.28515625" customWidth="1"/>
-    <col min="4" max="4" width="118.5703125" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="93.33203125" customWidth="1"/>
+    <col min="4" max="4" width="118.5546875" customWidth="1"/>
+    <col min="5" max="5" width="51.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -2912,13 +2899,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2941,7 +2928,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2968,7 +2955,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2995,7 +2982,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3022,7 +3009,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3049,7 +3036,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3076,7 +3063,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3103,7 +3090,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3130,7 +3117,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3157,7 +3144,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3184,7 +3171,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -3211,7 +3198,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3238,7 +3225,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3265,7 +3252,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3292,7 +3279,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3319,7 +3306,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3346,7 +3333,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3373,7 +3360,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3400,7 +3387,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3427,7 +3414,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3454,7 +3441,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3481,7 +3468,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3508,7 +3495,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3535,7 +3522,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3562,7 +3549,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3589,7 +3576,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3616,7 +3603,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3643,7 +3630,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3670,7 +3657,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3697,7 +3684,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3724,7 +3711,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3751,7 +3738,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3778,7 +3765,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3805,7 +3792,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3832,7 +3819,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3859,7 +3846,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3886,7 +3873,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3913,7 +3900,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3940,7 +3927,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3967,7 +3954,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3994,7 +3981,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4021,7 +4008,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4048,7 +4035,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4075,7 +4062,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4102,7 +4089,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4129,7 +4116,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4156,7 +4143,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4183,7 +4170,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4210,7 +4197,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4237,7 +4224,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4264,7 +4251,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4291,7 +4278,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4318,7 +4305,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4345,7 +4332,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4372,7 +4359,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4399,7 +4386,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4426,7 +4413,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4453,7 +4440,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4480,7 +4467,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4507,7 +4494,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4534,7 +4521,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4561,7 +4548,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4588,7 +4575,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4615,7 +4602,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4642,7 +4629,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4669,7 +4656,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4696,7 +4683,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4723,7 +4710,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4750,7 +4737,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4777,7 +4764,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4804,7 +4791,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4831,7 +4818,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4858,7 +4845,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4885,7 +4872,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4912,7 +4899,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4939,7 +4926,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4966,7 +4953,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4993,7 +4980,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5020,7 +5007,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5047,7 +5034,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5074,7 +5061,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5101,7 +5088,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5128,7 +5115,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5155,7 +5142,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5182,7 +5169,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5209,7 +5196,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5236,7 +5223,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5263,7 +5250,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5290,7 +5277,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5317,7 +5304,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5344,7 +5331,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5371,7 +5358,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5398,7 +5385,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5425,7 +5412,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5452,7 +5439,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5479,7 +5466,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5506,7 +5493,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5533,7 +5520,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5560,7 +5547,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5587,7 +5574,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5614,7 +5601,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5641,7 +5628,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5668,7 +5655,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5695,7 +5682,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5722,7 +5709,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5749,7 +5736,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5776,7 +5763,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5803,7 +5790,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5830,7 +5817,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5857,7 +5844,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5884,7 +5871,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5911,7 +5898,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5938,7 +5925,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5965,7 +5952,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5992,7 +5979,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -6019,7 +6006,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -6046,7 +6033,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6073,7 +6060,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6100,7 +6087,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -6127,7 +6114,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -6154,7 +6141,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -6181,7 +6168,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6208,7 +6195,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -6235,7 +6222,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6262,7 +6249,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -6289,7 +6276,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6316,7 +6303,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6343,7 +6330,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6370,7 +6357,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6397,7 +6384,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6424,7 +6411,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6451,7 +6438,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6478,7 +6465,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6505,7 +6492,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6532,7 +6519,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6559,7 +6546,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6586,7 +6573,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6613,7 +6600,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6640,7 +6627,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6667,7 +6654,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6694,7 +6681,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6721,7 +6708,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6748,7 +6735,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6775,7 +6762,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6802,7 +6789,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6829,7 +6816,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6856,7 +6843,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6883,7 +6870,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6910,7 +6897,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6937,7 +6924,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6964,7 +6951,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6991,7 +6978,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -7018,7 +7005,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -7045,7 +7032,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -7072,7 +7059,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -7099,7 +7086,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -7126,7 +7113,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -7153,7 +7140,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -7180,7 +7167,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -7207,7 +7194,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -7234,7 +7221,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -7261,7 +7248,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7288,7 +7275,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7315,7 +7302,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7342,7 +7329,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7369,7 +7356,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7396,7 +7383,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7423,7 +7410,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7450,7 +7437,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7477,7 +7464,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7504,7 +7491,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7531,7 +7518,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7558,7 +7545,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7585,7 +7572,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7612,7 +7599,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7639,7 +7626,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7666,7 +7653,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7693,7 +7680,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7720,7 +7707,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7747,7 +7734,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7774,7 +7761,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7801,7 +7788,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7828,7 +7815,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7855,7 +7842,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7882,7 +7869,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7909,7 +7896,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7936,7 +7923,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7963,7 +7950,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7990,7 +7977,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -8017,7 +8004,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8044,7 +8031,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8071,7 +8058,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -8098,7 +8085,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -8125,7 +8112,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -8152,7 +8139,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -8179,7 +8166,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -8206,7 +8193,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -8233,7 +8220,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -8260,7 +8247,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -8287,7 +8274,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -8314,7 +8301,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -8341,7 +8328,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8368,7 +8355,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8395,7 +8382,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8422,7 +8409,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8449,7 +8436,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8476,7 +8463,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8503,7 +8490,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8530,7 +8517,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8557,7 +8544,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8584,7 +8571,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8611,7 +8598,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8638,7 +8625,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8665,7 +8652,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8692,7 +8679,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8719,7 +8706,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8746,7 +8733,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8773,7 +8760,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8800,7 +8787,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8827,7 +8814,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8854,786 +8841,786 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\dora-the-explorer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahmoud\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F0EAD-995C-4531-A065-127AAB29D08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA97124-32A0-429A-BD44-5E907DA3F62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Team Name</t>
   </si>
@@ -1612,7 +1612,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1686,9 +1686,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>

--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahmoud\Documents\GitHub\dora-the-explorer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA97124-32A0-429A-BD44-5E907DA3F62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C9AF92-F5D9-4EA2-9CBF-084F786645DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Team Name</t>
   </si>
@@ -95,12 +95,69 @@
   <si>
     <t>Students</t>
   </si>
+  <si>
+    <t>Mohamed Gamal</t>
+  </si>
+  <si>
+    <t>55-12064</t>
+  </si>
+  <si>
+    <t>mohamed.gamal@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>Youssef Sherif Sabry Fawzy</t>
+  </si>
+  <si>
+    <t>55-6528</t>
+  </si>
+  <si>
+    <t>youssef.fawzy@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>Mahmoud Hegazy</t>
+  </si>
+  <si>
+    <t>55-13845</t>
+  </si>
+  <si>
+    <t>mahmod.hegazy@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>John Elkess Antonious</t>
+  </si>
+  <si>
+    <t>55-4548</t>
+  </si>
+  <si>
+    <t>john.edward@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>T-26</t>
+  </si>
+  <si>
+    <t>T-10</t>
+  </si>
+  <si>
+    <t>T-18</t>
+  </si>
+  <si>
+    <t>Hazem Essam Brekaa</t>
+  </si>
+  <si>
+    <t>55-15850</t>
+  </si>
+  <si>
+    <t>hazem.brekaa@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>T-11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -190,6 +247,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -235,10 +299,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,8 +358,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,8 +580,8 @@
   </sheetPr>
   <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -572,34 +639,74 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1599,8 +1706,11 @@
     <mergeCell ref="A2:D4"/>
     <mergeCell ref="A5:D5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{FB6B7E0C-502F-4915-9BE5-6F0C84B87A95}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1611,8 +1721,8 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2877,7 +2987,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C9AF92-F5D9-4EA2-9CBF-084F786645DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E956920C-14FF-4036-8C8A-28DFE5245945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>Team Name</t>
   </si>
@@ -66,16 +66,7 @@
     <t>So that</t>
   </si>
   <si>
-    <t>Schedule</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Create schedules for courses</t>
-  </si>
-  <si>
-    <t>Students &amp; staff can access their schedules</t>
   </si>
   <si>
     <t>Measurment</t>
@@ -88,9 +79,6 @@
   </si>
   <si>
     <t>Mobile App or Website or Both</t>
-  </si>
-  <si>
-    <t>This is just an example. The schedule module is repsonsible for handling the personalized schedule of the course for each stakeholder.</t>
   </si>
   <si>
     <t>Students</t>
@@ -152,12 +140,81 @@
   <si>
     <t>T-11</t>
   </si>
+  <si>
+    <t>Donor</t>
+  </si>
+  <si>
+    <t>Register using Username and Password</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Login using Username and Password</t>
+  </si>
+  <si>
+    <t>I can access the Website/Mobile App</t>
+  </si>
+  <si>
+    <t>I can login</t>
+  </si>
+  <si>
+    <t>View Requests on Home Page</t>
+  </si>
+  <si>
+    <t>Search for Requests using search bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send a Request to Donate </t>
+  </si>
+  <si>
+    <t>the organisation send the delivery man to claim your items</t>
+  </si>
+  <si>
+    <t>Select a Request by clicking on it</t>
+  </si>
+  <si>
+    <t>See the locations of blood clinics</t>
+  </si>
+  <si>
+    <t>I can see what is requested to be donated</t>
+  </si>
+  <si>
+    <t>I am able to find specific donations</t>
+  </si>
+  <si>
+    <t>I can see the details of the request</t>
+  </si>
+  <si>
+    <t>I can donate blood</t>
+  </si>
+  <si>
+    <t>Health Sector</t>
+  </si>
+  <si>
+    <t>Track the request using google maps</t>
+  </si>
+  <si>
+    <t>I can check the status of the donated goods</t>
+  </si>
+  <si>
+    <t>I can inquire for more details</t>
+  </si>
+  <si>
+    <t>Contact the organization using Chat</t>
+  </si>
+  <si>
+    <t>I can be informed when a delivery person will drop by</t>
+  </si>
+  <si>
+    <t>Receive notifications</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -254,6 +311,19 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -275,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -298,12 +368,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -335,9 +416,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -347,6 +425,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -358,7 +437,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -580,7 +668,7 @@
   </sheetPr>
   <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -618,7 +706,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -640,72 +728,72 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1721,8 +1809,8 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1730,7 +1818,8 @@
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="6" width="35.5546875" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="54.88671875" customWidth="1"/>
   </cols>
@@ -1768,125 +1857,253 @@
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>20</v>
+      <c r="G2" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="D3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
+      <c r="A4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="A5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
+      <c r="A6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+      <c r="A7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="A8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9">
+        <v>6</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="A9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="A10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9">
+        <v>8</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9">
+        <v>9</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
+      <c r="A12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -1896,7 +2113,7 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
@@ -3000,20 +3217,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3038,9 +3255,9 @@
     </row>
     <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="10"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>

--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E956920C-14FF-4036-8C8A-28DFE5245945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5753E7CB-8293-4DEB-A8F0-0AA67B77E1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
     <sheet name="Functional Requirements Sheet" sheetId="2" r:id="rId2"/>
-    <sheet name="Non-Functional Requirements She" sheetId="3" r:id="rId3"/>
+    <sheet name="Temp" sheetId="4" r:id="rId3"/>
+    <sheet name="Non-Functional Requirements She" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$A$1:$H$4</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="61">
   <si>
     <t>Team Name</t>
   </si>
@@ -426,6 +427,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,16 +447,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -679,38 +680,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1809,8 +1810,8 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1863,7 +1864,7 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1872,22 +1873,22 @@
       <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1896,7 +1897,7 @@
       <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -1905,13 +1906,13 @@
       <c r="F4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1920,22 +1921,22 @@
       <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1944,22 +1945,22 @@
       <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1968,22 +1969,22 @@
       <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1992,7 +1993,7 @@
       <c r="C8" s="9">
         <v>6</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -2001,13 +2002,13 @@
       <c r="F8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2016,7 +2017,7 @@
       <c r="C9" s="9">
         <v>7</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -2025,13 +2026,13 @@
       <c r="F9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2040,7 +2041,7 @@
       <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -2049,13 +2050,13 @@
       <c r="F10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2064,7 +2065,7 @@
       <c r="C11" s="9">
         <v>9</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -2073,13 +2074,13 @@
       <c r="F11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2088,7 +2089,7 @@
       <c r="C12" s="9">
         <v>10</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -2097,13 +2098,13 @@
       <c r="F12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -2113,7 +2114,7 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
@@ -3197,13 +3198,324 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35DCD16-6828-4540-BD52-03E653D76BE9}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9">
+        <v>6</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9">
+        <v>8</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D12" xr:uid="{90EA7F15-5B4B-4E66-94FB-3D45D42C0ECA}">
+      <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G12" xr:uid="{FC5D619D-5E49-4E86-BB58-B9F0FAB9D1F1}">
+      <formula1>"Mobile App,Online Banking Website,Both"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5753E7CB-8293-4DEB-A8F0-0AA67B77E1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9335F5AB-EA76-4FBC-A635-C9BAFE483137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="83">
   <si>
     <t>Team Name</t>
   </si>
@@ -210,6 +210,72 @@
   <si>
     <t>Receive notifications</t>
   </si>
+  <si>
+    <t>Donation Receiver</t>
+  </si>
+  <si>
+    <t>Track the location of the delivery person</t>
+  </si>
+  <si>
+    <t>I am able to know when I will recieve the donation</t>
+  </si>
+  <si>
+    <t>post my clothing size</t>
+  </si>
+  <si>
+    <t>I recieve suitable clothes</t>
+  </si>
+  <si>
+    <t>Request a donation</t>
+  </si>
+  <si>
+    <t>I can recieve donations</t>
+  </si>
+  <si>
+    <t>see all available donations</t>
+  </si>
+  <si>
+    <t>I can choose the most suitable donation for me</t>
+  </si>
+  <si>
+    <t>Chat with donors</t>
+  </si>
+  <si>
+    <t>I am able to know how I can recieve the donation</t>
+  </si>
+  <si>
+    <t>post my allergies</t>
+  </si>
+  <si>
+    <t>i do not receive food that is not suitable</t>
+  </si>
+  <si>
+    <t>Post my blood type</t>
+  </si>
+  <si>
+    <t>I am able to recieve the correct blood type</t>
+  </si>
+  <si>
+    <t>Check the nearest clinic</t>
+  </si>
+  <si>
+    <t>I am able to recieve blood transfusions</t>
+  </si>
+  <si>
+    <t>Request a pro-bono doctor visit</t>
+  </si>
+  <si>
+    <t>I can get a health check up</t>
+  </si>
+  <si>
+    <t>post my school year</t>
+  </si>
+  <si>
+    <t>I can recieve the correct school supplies</t>
+  </si>
+  <si>
+    <t>Refugee</t>
+  </si>
 </sst>
 </file>
 
@@ -385,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -446,6 +512,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3199,18 +3268,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35DCD16-6828-4540-BD52-03E653D76BE9}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
@@ -3364,10 +3433,10 @@
       <c r="D7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="19" t="s">
@@ -3494,6 +3563,270 @@
         <v>40</v>
       </c>
       <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9">
+        <v>19</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="9">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3515,7 +3848,7 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\dora-the-explorer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hazem\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9335F5AB-EA76-4FBC-A635-C9BAFE483137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FA94A2-FDBA-4C49-BB69-FA314C9318A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="108">
   <si>
     <t>Team Name</t>
   </si>
@@ -276,6 +276,81 @@
   <si>
     <t>Refugee</t>
   </si>
+  <si>
+    <t xml:space="preserve">Organization </t>
+  </si>
+  <si>
+    <t>I would like to view the qualification of the doctor</t>
+  </si>
+  <si>
+    <t>so that i can know that they are qualified.</t>
+  </si>
+  <si>
+    <t>i would like to post the blood type</t>
+  </si>
+  <si>
+    <t>so that i can receive the suitable blood type.</t>
+  </si>
+  <si>
+    <t>i would like to show a short video after the donation</t>
+  </si>
+  <si>
+    <t>so that i can show the donor the positive impact they done.</t>
+  </si>
+  <si>
+    <t>i would like to create a short description about the organization</t>
+  </si>
+  <si>
+    <t>so that i can clear donors doubts.</t>
+  </si>
+  <si>
+    <t>i would like to be shown to more donors</t>
+  </si>
+  <si>
+    <t>so that i can contribute more to my cause.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> would like to upload my certifications</t>
+  </si>
+  <si>
+    <t>so that i can be verified.</t>
+  </si>
+  <si>
+    <t>i would like to share links to my sociale media</t>
+  </si>
+  <si>
+    <t>so that people can see my implications.</t>
+  </si>
+  <si>
+    <t>i would like to interact with the donor thourghout a comment section</t>
+  </si>
+  <si>
+    <t>so that we can clear out our intention</t>
+  </si>
+  <si>
+    <t>i would like to view the qualifications of the teacher</t>
+  </si>
+  <si>
+    <t>so that i can know if they are qulified for teaching students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i would like to update donors by showing them videos or pictures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so that I can show them their positive impact </t>
+  </si>
+  <si>
+    <t>i sould be able to report if there is any issues coming from the donor</t>
+  </si>
+  <si>
+    <t>so that I can report possible scam</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>School suplies</t>
+  </si>
 </sst>
 </file>
 
@@ -412,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -446,12 +521,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,6 +587,9 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,12 +601,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -742,47 +839,47 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -796,7 +893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -810,7 +907,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -824,7 +921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -838,7 +935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -852,7 +949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -866,998 +963,998 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
@@ -1883,18 +1980,18 @@
       <selection activeCell="B10" sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="54.88671875" customWidth="1"/>
+    <col min="8" max="8" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -1914,7 +2011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1932,7 +2029,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
@@ -1956,7 +2053,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
@@ -1980,7 +2077,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>38</v>
       </c>
@@ -2004,7 +2101,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>38</v>
       </c>
@@ -2028,7 +2125,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
@@ -2052,7 +2149,7 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -2076,7 +2173,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>54</v>
       </c>
@@ -2100,7 +2197,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
@@ -2124,7 +2221,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>38</v>
       </c>
@@ -2148,7 +2245,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
@@ -2172,7 +2269,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2182,7 +2279,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2192,7 +2289,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2202,7 +2299,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2212,7 +2309,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2222,7 +2319,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2232,7 +2329,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2242,7 +2339,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2252,7 +2349,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2262,7 +2359,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2272,7 +2369,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2282,7 +2379,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2292,7 +2389,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2302,7 +2399,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2312,7 +2409,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2322,7 +2419,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2332,7 +2429,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2342,7 +2439,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2352,7 +2449,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2362,7 +2459,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2372,7 +2469,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2382,7 +2479,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2392,7 +2489,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -2402,7 +2499,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2412,7 +2509,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2422,7 +2519,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2432,7 +2529,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2442,7 +2539,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2452,7 +2549,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2462,7 +2559,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2472,7 +2569,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2482,7 +2579,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2492,7 +2589,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -2502,7 +2599,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2512,7 +2609,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2522,7 +2619,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -2532,7 +2629,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2542,7 +2639,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -2552,7 +2649,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -2562,7 +2659,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -2572,7 +2669,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2582,7 +2679,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -2592,7 +2689,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2602,7 +2699,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -2612,7 +2709,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2622,7 +2719,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -2632,7 +2729,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2642,7 +2739,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -2652,7 +2749,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -2662,7 +2759,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -2672,7 +2769,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -2682,7 +2779,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2692,7 +2789,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -2702,7 +2799,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -2712,7 +2809,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -2722,7 +2819,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -2732,7 +2829,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -2742,7 +2839,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -2752,7 +2849,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -2762,7 +2859,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -2772,7 +2869,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2782,7 +2879,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -2792,7 +2889,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -2802,7 +2899,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -2812,7 +2909,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -2822,7 +2919,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -2832,7 +2929,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -2842,7 +2939,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -2852,7 +2949,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -2862,7 +2959,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -2872,7 +2969,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -2882,7 +2979,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -2892,7 +2989,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -2902,7 +2999,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -2912,7 +3009,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -2922,7 +3019,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -2932,7 +3029,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -2942,7 +3039,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -2952,7 +3049,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -2962,7 +3059,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -2972,7 +3069,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -2982,7 +3079,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -2992,7 +3089,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -3002,7 +3099,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -3012,7 +3109,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -3022,7 +3119,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -3032,7 +3129,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -3042,7 +3139,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3052,7 +3149,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -3062,7 +3159,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -3072,7 +3169,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -3082,7 +3179,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -3092,7 +3189,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -3102,7 +3199,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -3112,7 +3209,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -3122,7 +3219,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -3132,7 +3229,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -3142,7 +3239,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -3152,7 +3249,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -3162,7 +3259,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -3172,7 +3269,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -3182,7 +3279,7 @@
       <c r="G113" s="11"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -3192,7 +3289,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -3202,7 +3299,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -3212,7 +3309,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -3222,7 +3319,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -3232,7 +3329,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -3242,7 +3339,7 @@
       <c r="G119" s="11"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -3268,25 +3365,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35DCD16-6828-4540-BD52-03E653D76BE9}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -3306,7 +3403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3324,7 +3421,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
@@ -3348,7 +3445,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
@@ -3372,7 +3469,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>38</v>
       </c>
@@ -3396,7 +3493,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>38</v>
       </c>
@@ -3420,7 +3517,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
@@ -3444,7 +3541,7 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -3468,7 +3565,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>54</v>
       </c>
@@ -3492,7 +3589,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
@@ -3516,7 +3613,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>38</v>
       </c>
@@ -3540,7 +3637,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
@@ -3564,8 +3661,8 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -3588,8 +3685,8 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -3612,8 +3709,8 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -3636,8 +3733,8 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -3660,8 +3757,8 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -3684,8 +3781,8 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -3708,8 +3805,8 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -3732,8 +3829,8 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -3756,8 +3853,8 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -3780,8 +3877,8 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -3804,8 +3901,8 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -3827,6 +3924,235 @@
         <v>40</v>
       </c>
       <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="28">
+        <v>22</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="28">
+        <v>23</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="28">
+        <v>24</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="28">
+        <v>25</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="28">
+        <v>26</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="28">
+        <v>27</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="28">
+        <v>28</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="28">
+        <v>29</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="28">
+        <v>30</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="28">
+        <v>31</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="28">
+        <v>32</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="27"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D37" s="27"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3852,16 +4178,16 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="93.33203125" customWidth="1"/>
-    <col min="4" max="4" width="118.5546875" customWidth="1"/>
-    <col min="5" max="5" width="51.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="93.28515625" customWidth="1"/>
+    <col min="4" max="4" width="118.5703125" customWidth="1"/>
+    <col min="5" max="5" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -3898,7 +4224,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -3925,7 +4251,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -3952,7 +4278,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3979,7 +4305,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4006,7 +4332,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -4033,7 +4359,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4060,7 +4386,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4087,7 +4413,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4114,7 +4440,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4141,7 +4467,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4168,7 +4494,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4195,7 +4521,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4222,7 +4548,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4249,7 +4575,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4276,7 +4602,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4303,7 +4629,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4330,7 +4656,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4357,7 +4683,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4384,7 +4710,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4411,7 +4737,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4438,7 +4764,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4465,7 +4791,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4492,7 +4818,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4519,7 +4845,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4546,7 +4872,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4573,7 +4899,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4600,7 +4926,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4627,7 +4953,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4654,7 +4980,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4681,7 +5007,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4708,7 +5034,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4735,7 +5061,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4762,7 +5088,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4789,7 +5115,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4816,7 +5142,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4843,7 +5169,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4870,7 +5196,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4897,7 +5223,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4924,7 +5250,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4951,7 +5277,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4978,7 +5304,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5005,7 +5331,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5032,7 +5358,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5059,7 +5385,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5086,7 +5412,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5113,7 +5439,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5140,7 +5466,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5167,7 +5493,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5194,7 +5520,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5221,7 +5547,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5248,7 +5574,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5275,7 +5601,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5302,7 +5628,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5329,7 +5655,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5356,7 +5682,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5383,7 +5709,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5410,7 +5736,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5437,7 +5763,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5464,7 +5790,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5491,7 +5817,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5518,7 +5844,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5545,7 +5871,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -5572,7 +5898,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5599,7 +5925,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -5626,7 +5952,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5653,7 +5979,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5680,7 +6006,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5707,7 +6033,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5734,7 +6060,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -5761,7 +6087,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5788,7 +6114,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -5815,7 +6141,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5842,7 +6168,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5869,7 +6195,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5896,7 +6222,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5923,7 +6249,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5950,7 +6276,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5977,7 +6303,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6004,7 +6330,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6031,7 +6357,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6058,7 +6384,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6085,7 +6411,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6112,7 +6438,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6139,7 +6465,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6166,7 +6492,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6193,7 +6519,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6220,7 +6546,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6247,7 +6573,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6274,7 +6600,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6301,7 +6627,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6328,7 +6654,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6355,7 +6681,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6382,7 +6708,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6409,7 +6735,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6436,7 +6762,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6463,7 +6789,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6490,7 +6816,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6517,7 +6843,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6544,7 +6870,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6571,7 +6897,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6598,7 +6924,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6625,7 +6951,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6652,7 +6978,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6679,7 +7005,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -6706,7 +7032,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -6733,7 +7059,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -6760,7 +7086,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6787,7 +7113,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6814,7 +7140,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -6841,7 +7167,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -6868,7 +7194,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -6895,7 +7221,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -6922,7 +7248,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -6949,7 +7275,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -6976,7 +7302,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7003,7 +7329,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7030,7 +7356,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7057,7 +7383,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7084,7 +7410,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7111,7 +7437,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7138,7 +7464,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7165,7 +7491,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -7192,7 +7518,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -7219,7 +7545,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7246,7 +7572,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7273,7 +7599,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7300,7 +7626,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7327,7 +7653,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7354,7 +7680,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -7381,7 +7707,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -7408,7 +7734,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -7435,7 +7761,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -7462,7 +7788,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -7489,7 +7815,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -7516,7 +7842,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7543,7 +7869,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -7570,7 +7896,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7597,7 +7923,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -7624,7 +7950,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -7651,7 +7977,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -7678,7 +8004,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -7705,7 +8031,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7732,7 +8058,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -7759,7 +8085,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -7786,7 +8112,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -7813,7 +8139,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -7840,7 +8166,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -7867,7 +8193,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -7894,7 +8220,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -7921,7 +8247,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -7948,7 +8274,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -7975,7 +8301,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -8002,7 +8328,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -8029,7 +8355,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -8056,7 +8382,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -8083,7 +8409,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -8110,7 +8436,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -8137,7 +8463,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -8164,7 +8490,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -8191,7 +8517,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -8218,7 +8544,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -8245,7 +8571,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -8272,7 +8598,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -8299,7 +8625,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -8326,7 +8652,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -8353,7 +8679,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -8380,7 +8706,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -8407,7 +8733,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -8434,7 +8760,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -8461,7 +8787,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -8488,7 +8814,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -8515,7 +8841,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -8542,7 +8868,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -8569,7 +8895,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -8596,7 +8922,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -8623,7 +8949,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -8650,7 +8976,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -8677,7 +9003,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -8704,7 +9030,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -8731,7 +9057,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -8758,7 +9084,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -8785,7 +9111,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -8812,7 +9138,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -8839,7 +9165,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -8866,7 +9192,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -8893,7 +9219,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -8920,7 +9246,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -8947,7 +9273,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -8974,7 +9300,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -9001,7 +9327,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -9028,7 +9354,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -9055,7 +9381,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -9082,7 +9408,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -9109,7 +9435,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -9136,7 +9462,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -9163,7 +9489,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -9190,7 +9516,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -9217,7 +9543,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -9244,7 +9570,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -9271,7 +9597,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -9298,7 +9624,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -9325,7 +9651,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -9352,7 +9678,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -9379,7 +9705,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -9406,7 +9732,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -9433,7 +9759,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -9460,7 +9786,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -9487,7 +9813,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -9514,7 +9840,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -9541,7 +9867,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -9568,7 +9894,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -9595,7 +9921,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -9622,7 +9948,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -9649,7 +9975,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -9676,7 +10002,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -9703,7 +10029,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -9730,7 +10056,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -9757,7 +10083,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -9784,7 +10110,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -9811,786 +10137,786 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hazem\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FA94A2-FDBA-4C49-BB69-FA314C9318A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783DAEAE-2521-4A09-812E-7861BF08A284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,76 +280,76 @@
     <t xml:space="preserve">Organization </t>
   </si>
   <si>
-    <t>I would like to view the qualification of the doctor</t>
-  </si>
-  <si>
-    <t>so that i can know that they are qualified.</t>
-  </si>
-  <si>
-    <t>i would like to post the blood type</t>
-  </si>
-  <si>
-    <t>so that i can receive the suitable blood type.</t>
-  </si>
-  <si>
-    <t>i would like to show a short video after the donation</t>
-  </si>
-  <si>
-    <t>so that i can show the donor the positive impact they done.</t>
-  </si>
-  <si>
-    <t>i would like to create a short description about the organization</t>
-  </si>
-  <si>
-    <t>so that i can clear donors doubts.</t>
-  </si>
-  <si>
-    <t>i would like to be shown to more donors</t>
-  </si>
-  <si>
-    <t>so that i can contribute more to my cause.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> would like to upload my certifications</t>
-  </si>
-  <si>
-    <t>so that i can be verified.</t>
-  </si>
-  <si>
-    <t>i would like to share links to my sociale media</t>
-  </si>
-  <si>
-    <t>so that people can see my implications.</t>
-  </si>
-  <si>
-    <t>i would like to interact with the donor thourghout a comment section</t>
-  </si>
-  <si>
-    <t>so that we can clear out our intention</t>
-  </si>
-  <si>
-    <t>i would like to view the qualifications of the teacher</t>
-  </si>
-  <si>
-    <t>so that i can know if they are qulified for teaching students.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> i would like to update donors by showing them videos or pictures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so that I can show them their positive impact </t>
-  </si>
-  <si>
-    <t>i sould be able to report if there is any issues coming from the donor</t>
-  </si>
-  <si>
-    <t>so that I can report possible scam</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
     <t>School suplies</t>
+  </si>
+  <si>
+    <t>to view the qualification of the doctor</t>
+  </si>
+  <si>
+    <t>post the blood type</t>
+  </si>
+  <si>
+    <t>show a short video after the donation</t>
+  </si>
+  <si>
+    <t>create a short description about the organization</t>
+  </si>
+  <si>
+    <t>be shown to more donors</t>
+  </si>
+  <si>
+    <t>upload my certifications</t>
+  </si>
+  <si>
+    <t>share links to my sociale media</t>
+  </si>
+  <si>
+    <t>interact with the donor thourghout a comment section</t>
+  </si>
+  <si>
+    <t>view the qualifications of the teacher</t>
+  </si>
+  <si>
+    <t>update donors by showing them videos or pictures.</t>
+  </si>
+  <si>
+    <t>report if there is any issues coming from the donor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i can know that they are qualified.</t>
+  </si>
+  <si>
+    <t>i can receive the suitable blood type.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i can show the donor the positive impact they done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i can clear donors doubts.</t>
+  </si>
+  <si>
+    <t>i can contribute more to my cause.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i can be verified.</t>
+  </si>
+  <si>
+    <t>people can see my implications.</t>
+  </si>
+  <si>
+    <t>we can clear out our intention</t>
+  </si>
+  <si>
+    <t>i can know if they are qulified for teaching students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can show them their positive impact </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can report possible scam</t>
   </si>
 </sst>
 </file>
@@ -590,6 +590,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,19 +612,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -846,38 +846,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -3368,7 +3368,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3926,233 +3926,233 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="23">
         <v>22</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="23">
+        <v>23</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="30" t="s">
+      <c r="B26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="28">
-        <v>23</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="28">
+      <c r="C26" s="23">
         <v>24</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E26" t="s">
         <v>88</v>
       </c>
       <c r="F26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="23">
+        <v>25</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="30" t="s">
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="28">
-        <v>25</v>
-      </c>
-      <c r="D27" s="27" t="s">
+      <c r="C28" s="23">
+        <v>26</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>90</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="23">
+        <v>27</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="30" t="s">
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="28">
-        <v>26</v>
-      </c>
-      <c r="D28" s="27" t="s">
+      <c r="C30" s="23">
+        <v>28</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>92</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="23">
+        <v>29</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="28">
-        <v>27</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="28">
-        <v>28</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="28">
-        <v>29</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="23">
+        <v>30</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="23">
+        <v>31</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="23">
+        <v>32</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="28">
-        <v>30</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="28">
-        <v>31</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="28">
-        <v>32</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="27"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D36" s="27"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="27"/>
+      <c r="D37" s="22"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hazem\Documents\GitHub\dora-the-explorer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahmoud\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783DAEAE-2521-4A09-812E-7861BF08A284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA2826A-2C39-4C95-8C00-2E7069A2B685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="156">
   <si>
     <t>Team Name</t>
   </si>
@@ -350,6 +350,150 @@
   </si>
   <si>
     <t xml:space="preserve"> I can report possible scam</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>see the dimensions of the object</t>
+  </si>
+  <si>
+    <t>I can know if I can transport it</t>
+  </si>
+  <si>
+    <t>Health/School</t>
+  </si>
+  <si>
+    <t>Hospital/School</t>
+  </si>
+  <si>
+    <t>view qualifications of doctor/teacher</t>
+  </si>
+  <si>
+    <t>I can know if they are qualified</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>post my teaching qualifications</t>
+  </si>
+  <si>
+    <t>I can teach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System </t>
+  </si>
+  <si>
+    <t>post my medical qualifications</t>
+  </si>
+  <si>
+    <t>I can check up of patients</t>
+  </si>
+  <si>
+    <t>schedule the pickup time</t>
+  </si>
+  <si>
+    <t>I can plan my time</t>
+  </si>
+  <si>
+    <t>post blood type</t>
+  </si>
+  <si>
+    <t>I can receive suitable blood type</t>
+  </si>
+  <si>
+    <t>i can show the donor the positive impact they done.</t>
+  </si>
+  <si>
+    <t>i can clear donors doubts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donor </t>
+  </si>
+  <si>
+    <t>view organizations' profile</t>
+  </si>
+  <si>
+    <t>i can know what their cause is.</t>
+  </si>
+  <si>
+    <t>would like to specify to the kitchen supplies</t>
+  </si>
+  <si>
+    <t>i can receive what i need</t>
+  </si>
+  <si>
+    <t>specify the electric appliance</t>
+  </si>
+  <si>
+    <t>specify the clothes size</t>
+  </si>
+  <si>
+    <t>i receive clothes i can wear</t>
+  </si>
+  <si>
+    <t>DElivery</t>
+  </si>
+  <si>
+    <t>know if the package has fragile items</t>
+  </si>
+  <si>
+    <t>i can be careful when transporting it</t>
+  </si>
+  <si>
+    <t>know if the package needs to be cooled</t>
+  </si>
+  <si>
+    <t>specify that the package needs to be cooled</t>
+  </si>
+  <si>
+    <t>i can alert the delivery</t>
+  </si>
+  <si>
+    <t>specify that the package contains fragile items</t>
+  </si>
+  <si>
+    <t>search organizations by their causes</t>
+  </si>
+  <si>
+    <t>i can donate to the cause i want</t>
+  </si>
+  <si>
+    <t>like to be shown to more donors</t>
+  </si>
+  <si>
+    <t>i can contribute more to my cause</t>
+  </si>
+  <si>
+    <t>know the location of the organization</t>
+  </si>
+  <si>
+    <t>i can drop off the item i want to donate</t>
+  </si>
+  <si>
+    <t>have the option of droping off the item</t>
+  </si>
+  <si>
+    <t>i do not need to wait for delivery person</t>
+  </si>
+  <si>
+    <t>i can be verified</t>
+  </si>
+  <si>
+    <t>System admin</t>
+  </si>
+  <si>
+    <t>view organizations' certificate</t>
+  </si>
+  <si>
+    <t>i can verify them</t>
+  </si>
+  <si>
+    <t>contact organizations through messages</t>
+  </si>
+  <si>
+    <t>Idk</t>
   </si>
 </sst>
 </file>
@@ -616,7 +760,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -839,13 +983,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -853,25 +997,25 @@
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>18</v>
       </c>
@@ -879,7 +1023,7 @@
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -893,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -907,7 +1051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -921,7 +1065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -935,7 +1079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -949,7 +1093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -963,998 +1107,998 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
@@ -1980,18 +2124,18 @@
       <selection activeCell="B10" sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="54.85546875" customWidth="1"/>
+    <col min="8" max="8" width="54.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -2011,7 +2155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2029,7 +2173,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
@@ -2053,7 +2197,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
@@ -2077,7 +2221,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>38</v>
       </c>
@@ -2101,7 +2245,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>38</v>
       </c>
@@ -2125,7 +2269,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
@@ -2149,7 +2293,7 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -2173,7 +2317,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>54</v>
       </c>
@@ -2197,7 +2341,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
@@ -2221,7 +2365,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>38</v>
       </c>
@@ -2245,7 +2389,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
@@ -2269,7 +2413,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2279,7 +2423,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2289,7 +2433,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2299,7 +2443,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2309,7 +2453,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2319,7 +2463,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2329,7 +2473,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2339,7 +2483,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2349,7 +2493,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2359,7 +2503,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2369,7 +2513,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2379,7 +2523,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2389,7 +2533,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2399,7 +2543,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2409,7 +2553,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2419,7 +2563,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2429,7 +2573,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2439,7 +2583,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2449,7 +2593,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2459,7 +2603,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2469,7 +2613,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2479,7 +2623,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2489,7 +2633,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -2499,7 +2643,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2509,7 +2653,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2519,7 +2663,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2529,7 +2673,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2539,7 +2683,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2549,7 +2693,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2559,7 +2703,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2569,7 +2713,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2579,7 +2723,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2589,7 +2733,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -2599,7 +2743,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2609,7 +2753,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2619,7 +2763,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -2629,7 +2773,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2639,7 +2783,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -2649,7 +2793,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -2659,7 +2803,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -2669,7 +2813,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2679,7 +2823,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -2689,7 +2833,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2699,7 +2843,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -2709,7 +2853,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2719,7 +2863,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -2729,7 +2873,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2739,7 +2883,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -2749,7 +2893,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -2759,7 +2903,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -2769,7 +2913,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -2779,7 +2923,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2789,7 +2933,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -2799,7 +2943,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -2809,7 +2953,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -2819,7 +2963,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -2829,7 +2973,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -2839,7 +2983,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -2849,7 +2993,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -2859,7 +3003,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -2869,7 +3013,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2879,7 +3023,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -2889,7 +3033,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -2899,7 +3043,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -2909,7 +3053,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -2919,7 +3063,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -2929,7 +3073,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -2939,7 +3083,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -2949,7 +3093,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -2959,7 +3103,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -2969,7 +3113,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -2979,7 +3123,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -2989,7 +3133,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -2999,7 +3143,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -3009,7 +3153,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -3019,7 +3163,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -3029,7 +3173,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -3039,7 +3183,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -3049,7 +3193,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -3059,7 +3203,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -3069,7 +3213,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -3079,7 +3223,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -3089,7 +3233,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -3099,7 +3243,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -3109,7 +3253,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -3119,7 +3263,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -3129,7 +3273,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -3139,7 +3283,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3149,7 +3293,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -3159,7 +3303,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -3169,7 +3313,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -3179,7 +3323,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -3189,7 +3333,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -3199,7 +3343,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -3209,7 +3353,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -3219,7 +3363,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -3229,7 +3373,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -3239,7 +3383,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -3249,7 +3393,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -3259,7 +3403,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -3269,7 +3413,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -3279,7 +3423,7 @@
       <c r="G113" s="11"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -3289,7 +3433,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -3299,7 +3443,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -3309,7 +3453,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -3319,7 +3463,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -3329,7 +3473,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -3339,7 +3483,7 @@
       <c r="G119" s="11"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -3365,25 +3509,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35DCD16-6828-4540-BD52-03E653D76BE9}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59" customWidth="1"/>
-    <col min="6" max="6" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -3403,7 +3547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3421,7 +3565,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
@@ -3445,7 +3589,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
@@ -3469,7 +3613,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>38</v>
       </c>
@@ -3493,7 +3637,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>38</v>
       </c>
@@ -3517,7 +3661,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
@@ -3541,7 +3685,7 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -3565,7 +3709,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>54</v>
       </c>
@@ -3589,7 +3733,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
@@ -3613,7 +3757,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>38</v>
       </c>
@@ -3637,7 +3781,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
@@ -3661,7 +3805,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>82</v>
       </c>
@@ -3685,7 +3829,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>82</v>
       </c>
@@ -3709,7 +3853,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>82</v>
       </c>
@@ -3733,7 +3877,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>82</v>
       </c>
@@ -3757,7 +3901,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>82</v>
       </c>
@@ -3781,7 +3925,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>82</v>
       </c>
@@ -3805,7 +3949,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>82</v>
       </c>
@@ -3829,7 +3973,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>82</v>
       </c>
@@ -3853,7 +3997,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>82</v>
       </c>
@@ -3877,7 +4021,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>82</v>
       </c>
@@ -3901,7 +4045,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>82</v>
       </c>
@@ -3925,7 +4069,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>54</v>
       </c>
@@ -3945,7 +4089,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>54</v>
       </c>
@@ -3965,7 +4109,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>84</v>
       </c>
@@ -3985,7 +4129,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>84</v>
       </c>
@@ -4005,7 +4149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>84</v>
       </c>
@@ -4025,7 +4169,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>84</v>
       </c>
@@ -4045,7 +4189,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>84</v>
       </c>
@@ -4065,7 +4209,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>84</v>
       </c>
@@ -4085,7 +4229,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -4105,7 +4249,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>84</v>
       </c>
@@ -4125,7 +4269,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>84</v>
       </c>
@@ -4145,14 +4289,396 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="22"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46">
+        <v>33</v>
+      </c>
+      <c r="D46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49">
+        <v>36</v>
+      </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52">
+        <v>39</v>
+      </c>
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55">
+        <v>42</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56">
+        <v>43</v>
+      </c>
+      <c r="D56" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>44</v>
+      </c>
+      <c r="D57" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4178,16 +4704,16 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="93.28515625" customWidth="1"/>
-    <col min="4" max="4" width="118.5703125" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="93.33203125" customWidth="1"/>
+    <col min="4" max="4" width="118.5546875" customWidth="1"/>
+    <col min="5" max="5" width="51.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -4224,7 +4750,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -4251,7 +4777,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -4278,7 +4804,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4305,7 +4831,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4332,7 +4858,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -4359,7 +4885,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4386,7 +4912,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4413,7 +4939,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4440,7 +4966,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4467,7 +4993,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4494,7 +5020,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4521,7 +5047,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4548,7 +5074,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4575,7 +5101,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4602,7 +5128,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4629,7 +5155,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4656,7 +5182,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4683,7 +5209,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4710,7 +5236,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4737,7 +5263,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4764,7 +5290,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4791,7 +5317,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4818,7 +5344,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4845,7 +5371,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4872,7 +5398,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4899,7 +5425,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4926,7 +5452,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4953,7 +5479,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4980,7 +5506,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5007,7 +5533,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5034,7 +5560,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5061,7 +5587,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5088,7 +5614,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5115,7 +5641,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5142,7 +5668,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5169,7 +5695,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5196,7 +5722,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5223,7 +5749,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5250,7 +5776,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5277,7 +5803,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5304,7 +5830,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5331,7 +5857,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5358,7 +5884,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5385,7 +5911,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5412,7 +5938,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5439,7 +5965,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5466,7 +5992,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5493,7 +6019,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5520,7 +6046,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5547,7 +6073,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5574,7 +6100,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5601,7 +6127,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5628,7 +6154,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5655,7 +6181,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5682,7 +6208,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5709,7 +6235,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5736,7 +6262,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5763,7 +6289,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5790,7 +6316,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5817,7 +6343,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5844,7 +6370,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5871,7 +6397,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -5898,7 +6424,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5925,7 +6451,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -5952,7 +6478,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5979,7 +6505,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -6006,7 +6532,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -6033,7 +6559,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -6060,7 +6586,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6087,7 +6613,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -6114,7 +6640,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -6141,7 +6667,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -6168,7 +6694,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6195,7 +6721,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6222,7 +6748,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -6249,7 +6775,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -6276,7 +6802,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -6303,7 +6829,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6330,7 +6856,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6357,7 +6883,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6384,7 +6910,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6411,7 +6937,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6438,7 +6964,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6465,7 +6991,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6492,7 +7018,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6519,7 +7045,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6546,7 +7072,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6573,7 +7099,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6600,7 +7126,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6627,7 +7153,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6654,7 +7180,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6681,7 +7207,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6708,7 +7234,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6735,7 +7261,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6762,7 +7288,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6789,7 +7315,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6816,7 +7342,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6843,7 +7369,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6870,7 +7396,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6897,7 +7423,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6924,7 +7450,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6951,7 +7477,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6978,7 +7504,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7005,7 +7531,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7032,7 +7558,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7059,7 +7585,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7086,7 +7612,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7113,7 +7639,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7140,7 +7666,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7167,7 +7693,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7194,7 +7720,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7221,7 +7747,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7248,7 +7774,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7275,7 +7801,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7302,7 +7828,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7329,7 +7855,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7356,7 +7882,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7383,7 +7909,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7410,7 +7936,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7437,7 +7963,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7464,7 +7990,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7491,7 +8017,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -7518,7 +8044,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -7545,7 +8071,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7572,7 +8098,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7599,7 +8125,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7626,7 +8152,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7653,7 +8179,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7680,7 +8206,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -7707,7 +8233,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -7734,7 +8260,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -7761,7 +8287,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -7788,7 +8314,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -7815,7 +8341,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -7842,7 +8368,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7869,7 +8395,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -7896,7 +8422,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7923,7 +8449,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -7950,7 +8476,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -7977,7 +8503,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -8004,7 +8530,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8031,7 +8557,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -8058,7 +8584,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -8085,7 +8611,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -8112,7 +8638,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -8139,7 +8665,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -8166,7 +8692,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -8193,7 +8719,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -8220,7 +8746,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -8247,7 +8773,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -8274,7 +8800,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -8301,7 +8827,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -8328,7 +8854,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -8355,7 +8881,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -8382,7 +8908,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -8409,7 +8935,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -8436,7 +8962,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -8463,7 +8989,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -8490,7 +9016,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -8517,7 +9043,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -8544,7 +9070,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -8571,7 +9097,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -8598,7 +9124,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -8625,7 +9151,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -8652,7 +9178,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -8679,7 +9205,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -8706,7 +9232,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -8733,7 +9259,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -8760,7 +9286,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -8787,7 +9313,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -8814,7 +9340,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -8841,7 +9367,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -8868,7 +9394,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -8895,7 +9421,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -8922,7 +9448,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -8949,7 +9475,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -8976,7 +9502,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -9003,7 +9529,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -9030,7 +9556,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -9057,7 +9583,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -9084,7 +9610,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -9111,7 +9637,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -9138,7 +9664,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -9165,7 +9691,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -9192,7 +9718,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -9219,7 +9745,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -9246,7 +9772,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -9273,7 +9799,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -9300,7 +9826,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -9327,7 +9853,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -9354,7 +9880,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -9381,7 +9907,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -9408,7 +9934,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -9435,7 +9961,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -9462,7 +9988,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -9489,7 +10015,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -9516,7 +10042,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -9543,7 +10069,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -9570,7 +10096,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -9597,7 +10123,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -9624,7 +10150,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -9651,7 +10177,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -9678,7 +10204,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -9705,7 +10231,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -9732,7 +10258,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -9759,7 +10285,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -9786,7 +10312,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -9813,7 +10339,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -9840,7 +10366,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -9867,7 +10393,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -9894,7 +10420,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -9921,7 +10447,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -9948,7 +10474,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -9975,7 +10501,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -10002,7 +10528,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -10029,7 +10555,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -10056,7 +10582,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -10083,7 +10609,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -10110,7 +10636,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -10137,786 +10663,786 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahmoud\Documents\GitHub\dora-the-explorer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA2826A-2C39-4C95-8C00-2E7069A2B685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D019B2E-85D8-4426-99ED-80354E65DF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="134">
   <si>
     <t>Team Name</t>
   </si>
@@ -196,54 +196,18 @@
     <t>Track the request using google maps</t>
   </si>
   <si>
-    <t>I can check the status of the donated goods</t>
-  </si>
-  <si>
     <t>I can inquire for more details</t>
   </si>
   <si>
-    <t>Contact the organization using Chat</t>
-  </si>
-  <si>
-    <t>I can be informed when a delivery person will drop by</t>
-  </si>
-  <si>
     <t>Receive notifications</t>
   </si>
   <si>
-    <t>Donation Receiver</t>
-  </si>
-  <si>
-    <t>Track the location of the delivery person</t>
-  </si>
-  <si>
-    <t>I am able to know when I will recieve the donation</t>
-  </si>
-  <si>
     <t>post my clothing size</t>
   </si>
   <si>
     <t>I recieve suitable clothes</t>
   </si>
   <si>
-    <t>Request a donation</t>
-  </si>
-  <si>
-    <t>I can recieve donations</t>
-  </si>
-  <si>
-    <t>see all available donations</t>
-  </si>
-  <si>
-    <t>I can choose the most suitable donation for me</t>
-  </si>
-  <si>
-    <t>Chat with donors</t>
-  </si>
-  <si>
-    <t>I am able to know how I can recieve the donation</t>
-  </si>
-  <si>
     <t>post my allergies</t>
   </si>
   <si>
@@ -283,54 +247,27 @@
     <t>Organization</t>
   </si>
   <si>
-    <t>School suplies</t>
-  </si>
-  <si>
     <t>to view the qualification of the doctor</t>
   </si>
   <si>
-    <t>post the blood type</t>
-  </si>
-  <si>
     <t>show a short video after the donation</t>
   </si>
   <si>
-    <t>create a short description about the organization</t>
-  </si>
-  <si>
     <t>be shown to more donors</t>
   </si>
   <si>
     <t>upload my certifications</t>
   </si>
   <si>
-    <t>share links to my sociale media</t>
-  </si>
-  <si>
-    <t>interact with the donor thourghout a comment section</t>
-  </si>
-  <si>
-    <t>view the qualifications of the teacher</t>
-  </si>
-  <si>
     <t>update donors by showing them videos or pictures.</t>
   </si>
   <si>
-    <t>report if there is any issues coming from the donor</t>
-  </si>
-  <si>
     <t xml:space="preserve"> i can know that they are qualified.</t>
   </si>
   <si>
-    <t>i can receive the suitable blood type.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> i can show the donor the positive impact they done.</t>
   </si>
   <si>
-    <t xml:space="preserve"> i can clear donors doubts.</t>
-  </si>
-  <si>
     <t>i can contribute more to my cause.</t>
   </si>
   <si>
@@ -340,12 +277,6 @@
     <t>people can see my implications.</t>
   </si>
   <si>
-    <t>we can clear out our intention</t>
-  </si>
-  <si>
-    <t>i can know if they are qulified for teaching students.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> I can show them their positive impact </t>
   </si>
   <si>
@@ -361,18 +292,6 @@
     <t>I can know if I can transport it</t>
   </si>
   <si>
-    <t>Health/School</t>
-  </si>
-  <si>
-    <t>Hospital/School</t>
-  </si>
-  <si>
-    <t>view qualifications of doctor/teacher</t>
-  </si>
-  <si>
-    <t>I can know if they are qualified</t>
-  </si>
-  <si>
     <t>System</t>
   </si>
   <si>
@@ -382,9 +301,6 @@
     <t>I can teach</t>
   </si>
   <si>
-    <t xml:space="preserve">System </t>
-  </si>
-  <si>
     <t>post my medical qualifications</t>
   </si>
   <si>
@@ -397,27 +313,6 @@
     <t>I can plan my time</t>
   </si>
   <si>
-    <t>post blood type</t>
-  </si>
-  <si>
-    <t>I can receive suitable blood type</t>
-  </si>
-  <si>
-    <t>i can show the donor the positive impact they done.</t>
-  </si>
-  <si>
-    <t>i can clear donors doubts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donor </t>
-  </si>
-  <si>
-    <t>view organizations' profile</t>
-  </si>
-  <si>
-    <t>i can know what their cause is.</t>
-  </si>
-  <si>
     <t>would like to specify to the kitchen supplies</t>
   </si>
   <si>
@@ -427,15 +322,6 @@
     <t>specify the electric appliance</t>
   </si>
   <si>
-    <t>specify the clothes size</t>
-  </si>
-  <si>
-    <t>i receive clothes i can wear</t>
-  </si>
-  <si>
-    <t>DElivery</t>
-  </si>
-  <si>
     <t>know if the package has fragile items</t>
   </si>
   <si>
@@ -460,12 +346,6 @@
     <t>i can donate to the cause i want</t>
   </si>
   <si>
-    <t>like to be shown to more donors</t>
-  </si>
-  <si>
-    <t>i can contribute more to my cause</t>
-  </si>
-  <si>
     <t>know the location of the organization</t>
   </si>
   <si>
@@ -478,22 +358,76 @@
     <t>i do not need to wait for delivery person</t>
   </si>
   <si>
-    <t>i can be verified</t>
-  </si>
-  <si>
-    <t>System admin</t>
-  </si>
-  <si>
     <t>view organizations' certificate</t>
   </si>
   <si>
     <t>i can verify them</t>
   </si>
   <si>
-    <t>contact organizations through messages</t>
-  </si>
-  <si>
-    <t>Idk</t>
+    <t>Donor/Orphanage/Delivery/Refugee/Doctor/Teacher</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>School Sector</t>
+  </si>
+  <si>
+    <t>I can be informed when a change occurs</t>
+  </si>
+  <si>
+    <t>When request is approved/Delivery person is out</t>
+  </si>
+  <si>
+    <t>I can check the status of the donating or receiving goods</t>
+  </si>
+  <si>
+    <t>Contact the Donor/Orphanage/Delivery/Refugee/Doctor/Teacher using Phone number</t>
+  </si>
+  <si>
+    <t>Orphanage/Refugee</t>
+  </si>
+  <si>
+    <t>Donor/Orphanage/Refugee</t>
+  </si>
+  <si>
+    <t>to view the qualification of the teacher</t>
+  </si>
+  <si>
+    <t>create a short description about myself</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i can clear any doubts.</t>
+  </si>
+  <si>
+    <t>Orphanage/Doctor/Teacher</t>
+  </si>
+  <si>
+    <t>Create a personal profile</t>
+  </si>
+  <si>
+    <t>Donor/Refugee</t>
+  </si>
+  <si>
+    <t>Orphanage</t>
+  </si>
+  <si>
+    <t>share links to my social media</t>
+  </si>
+  <si>
+    <t>report if there is any issues coming from the Donor/Orphanage/Delivery/Refugee/Doctor/Teacher</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Donor/Orphanage/Delivery/Refugee/Doctor/Teacher/Administrator</t>
+  </si>
+  <si>
+    <t>Contact the Donor/Orphanage/Delivery/Refugee/Doctor/Teacher/Administrator using Chat</t>
   </si>
 </sst>
 </file>
@@ -631,7 +565,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -665,21 +599,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -708,9 +633,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -734,19 +656,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -757,6 +666,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,38 +905,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1044,7 +959,7 @@
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2120,17 +2035,18 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:H12"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="54.88671875" customWidth="1"/>
   </cols>
@@ -2168,14 +2084,14 @@
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>38</v>
+      <c r="A3" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>13</v>
@@ -2183,47 +2099,47 @@
       <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>13</v>
+      <c r="A4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>38</v>
+      <c r="A5" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>13</v>
@@ -2231,23 +2147,23 @@
       <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="26" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>38</v>
+      <c r="A6" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>13</v>
@@ -2255,23 +2171,23 @@
       <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="26" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>38</v>
+      <c r="A7" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>13</v>
@@ -2279,22 +2195,22 @@
       <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="26" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2303,22 +2219,22 @@
       <c r="C8" s="9">
         <v>6</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="26" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2327,23 +2243,23 @@
       <c r="C9" s="9">
         <v>7</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="26" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>38</v>
+      <c r="A10" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>13</v>
@@ -2351,23 +2267,23 @@
       <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>38</v>
+      <c r="A11" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>13</v>
@@ -2375,23 +2291,23 @@
       <c r="C11" s="9">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="D11" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>38</v>
+      <c r="A12" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>13</v>
@@ -2399,308 +2315,702 @@
       <c r="C12" s="9">
         <v>10</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9">
+        <v>11</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9">
+        <v>12</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9">
+        <v>13</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9">
+        <v>14</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9">
+        <v>15</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9">
+        <v>16</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="F18" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
+      <c r="A19" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9">
+        <v>17</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
+      <c r="A20" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9">
+        <v>18</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
+      <c r="A21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9">
+        <v>19</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
+      <c r="A22" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9">
+        <v>20</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
+      <c r="A23" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="9">
+        <v>21</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
+      <c r="A24" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9">
+        <v>22</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10"/>
+    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9">
+        <v>23</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
+      <c r="A26" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9">
+        <v>24</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
+      <c r="A27" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="9">
+        <v>25</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
+      <c r="A28" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="9">
+        <v>26</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="10"/>
+      <c r="A29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="9">
+        <v>27</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="9">
+        <v>28</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="9">
+        <v>29</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="9">
+        <v>30</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="9">
+        <v>31</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="9">
+        <v>32</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="9">
+        <v>33</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="9">
+        <v>34</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="9">
+        <v>35</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="9">
+        <v>36</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="9">
+        <v>37</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="11"/>
+      <c r="A40" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="9">
+        <v>38</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="11"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3495,10 +3805,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G120" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G12 G17 G23:G28 G32:G39 G42:G120" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D1:D120" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D12 D15 D17 D23:D25 D27 D42:D120" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3511,8 +3821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35DCD16-6828-4540-BD52-03E653D76BE9}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3560,1132 +3870,529 @@
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>38</v>
+      <c r="A3" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>38</v>
+      <c r="A4" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="9">
-        <v>2</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>38</v>
+      <c r="A5" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="9">
-        <v>3</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9">
-        <v>4</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="A6" s="16"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="9">
-        <v>5</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="A7" s="16"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9">
-        <v>6</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="A8" s="16"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="9">
-        <v>7</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="A9" s="16"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9">
-        <v>8</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="A10" s="16"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9">
-        <v>9</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="A11" s="16"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="9">
-        <v>10</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="A12" s="16"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="9">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A13" s="20"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="9">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A14" s="20"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A15" s="20"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="9">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A16" s="20"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="9">
-        <v>15</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A17" s="20"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="9">
-        <v>16</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A18" s="20"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="9">
-        <v>17</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A19" s="20"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="9">
-        <v>18</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20" s="20"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="9">
-        <v>19</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A21" s="20"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="9">
-        <v>20</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A22" s="20"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="9">
-        <v>21</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A23" s="20"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="23">
-        <v>22</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" t="s">
-        <v>97</v>
-      </c>
+      <c r="A24" s="20"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="23">
-        <v>23</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="23">
-        <v>24</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" t="s">
-        <v>99</v>
-      </c>
+      <c r="A25" s="20"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="23">
-        <v>25</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="23">
-        <v>26</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" t="s">
-        <v>101</v>
-      </c>
+      <c r="A27" s="20"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="23">
-        <v>27</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" t="s">
-        <v>102</v>
-      </c>
+      <c r="A29" s="20"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="23">
-        <v>28</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" t="s">
-        <v>103</v>
-      </c>
+      <c r="A30" s="20"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="23">
-        <v>29</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" t="s">
-        <v>104</v>
-      </c>
+      <c r="A31" s="20"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="23">
-        <v>30</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="23">
-        <v>31</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="23">
-        <v>32</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35">
-        <v>22</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36">
-        <v>23</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37">
-        <v>24</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38">
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39">
-        <v>26</v>
-      </c>
-      <c r="D39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40">
-        <v>27</v>
-      </c>
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41">
-        <v>28</v>
-      </c>
-      <c r="D41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42">
-        <v>29</v>
-      </c>
-      <c r="D42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43">
-        <v>30</v>
-      </c>
-      <c r="D43" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44">
-        <v>31</v>
-      </c>
-      <c r="D44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45">
-        <v>32</v>
-      </c>
-      <c r="D45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46">
-        <v>33</v>
-      </c>
-      <c r="D46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" t="s">
-        <v>133</v>
-      </c>
-      <c r="F46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47">
-        <v>34</v>
-      </c>
-      <c r="D47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48">
-        <v>35</v>
-      </c>
-      <c r="D48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49">
-        <v>36</v>
-      </c>
-      <c r="D49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50">
-        <v>37</v>
-      </c>
-      <c r="D50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" t="s">
-        <v>141</v>
-      </c>
-      <c r="F50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51">
-        <v>38</v>
-      </c>
-      <c r="D51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52">
-        <v>39</v>
-      </c>
-      <c r="D52" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" t="s">
-        <v>144</v>
-      </c>
-      <c r="F52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53">
-        <v>40</v>
-      </c>
-      <c r="D53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54">
-        <v>41</v>
-      </c>
-      <c r="D54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55">
-        <v>42</v>
-      </c>
-      <c r="D55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56">
-        <v>43</v>
-      </c>
-      <c r="D56" t="s">
-        <v>151</v>
-      </c>
-      <c r="E56" t="s">
-        <v>152</v>
-      </c>
-      <c r="F56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57">
-        <v>44</v>
-      </c>
-      <c r="D57" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" t="s">
-        <v>154</v>
-      </c>
-      <c r="F57" t="s">
-        <v>155</v>
-      </c>
+      <c r="A32" s="20"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D1:D12" xr:uid="{90EA7F15-5B4B-4E66-94FB-3D45D42C0ECA}">
       <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G12" xr:uid="{FC5D619D-5E49-4E86-BB58-B9F0FAB9D1F1}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G24:G25 G27 G3:G12 G29:G32 G45:G46 G52:G54" xr:uid="{FC5D619D-5E49-4E86-BB58-B9F0FAB9D1F1}">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4701,7 +4408,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4714,7 +4421,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4726,7 +4433,7 @@
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="1"/>
@@ -4752,9 +4459,9 @@
     </row>
     <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="10"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>

--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D019B2E-85D8-4426-99ED-80354E65DF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C52287-2743-4443-9B78-5BBEAA8FE6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="153">
   <si>
     <t>Team Name</t>
   </si>
@@ -428,6 +428,63 @@
   </si>
   <si>
     <t>Contact the Donor/Orphanage/Delivery/Refugee/Doctor/Teacher/Administrator using Chat</t>
+  </si>
+  <si>
+    <t>sign in as a delivery guy</t>
+  </si>
+  <si>
+    <t>I can view my delivery portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view orders ready for delivery </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can choose from them </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> select an order</t>
+  </si>
+  <si>
+    <t>no other delivery guy can select it</t>
+  </si>
+  <si>
+    <t>see donor and receiver details</t>
+  </si>
+  <si>
+    <t>I can reach them</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> open donor's and receiver's locations</t>
+  </si>
+  <si>
+    <t>view collecting donation time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I know when to go to the donor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> view receiving time of donation</t>
+  </si>
+  <si>
+    <t>I know when to go to the receiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I receive wages </t>
+  </si>
+  <si>
+    <t>Receive money through the application</t>
+  </si>
+  <si>
+    <t>tick that I received wages through the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wages delivery is monitored </t>
+  </si>
+  <si>
+    <t>tick that I delivered the donation</t>
+  </si>
+  <si>
+    <t>packages delivery is monitored</t>
   </si>
 </sst>
 </file>
@@ -656,6 +713,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -666,12 +729,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -905,38 +962,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2035,7 +2092,7 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -2108,10 +2165,10 @@
       <c r="F3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -2132,7 +2189,7 @@
       <c r="F4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="20"/>
@@ -2156,7 +2213,7 @@
       <c r="F5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="10"/>
@@ -2180,7 +2237,7 @@
       <c r="F6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="10"/>
@@ -2204,7 +2261,7 @@
       <c r="F7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="10"/>
@@ -2228,7 +2285,7 @@
       <c r="F8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="10"/>
@@ -2252,7 +2309,7 @@
       <c r="F9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="10"/>
@@ -2276,7 +2333,7 @@
       <c r="F10" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="10"/>
@@ -2300,7 +2357,7 @@
       <c r="F11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="10"/>
@@ -2324,7 +2381,7 @@
       <c r="F12" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -2446,7 +2503,7 @@
       <c r="F17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="10"/>
@@ -2590,7 +2647,7 @@
       <c r="F23" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="10"/>
@@ -2614,7 +2671,7 @@
       <c r="F24" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="10"/>
@@ -2638,7 +2695,7 @@
       <c r="F25" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H25" s="20"/>
@@ -2662,7 +2719,7 @@
       <c r="F26" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="10"/>
@@ -2686,7 +2743,7 @@
       <c r="F27" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H27" s="10"/>
@@ -2710,7 +2767,7 @@
       <c r="F28" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="10"/>
@@ -2806,7 +2863,7 @@
       <c r="F32" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="20"/>
@@ -2830,7 +2887,7 @@
       <c r="F33" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H33" s="20"/>
@@ -2854,7 +2911,7 @@
       <c r="F34" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H34" s="20"/>
@@ -2878,7 +2935,7 @@
       <c r="F35" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H35" s="20"/>
@@ -2902,7 +2959,7 @@
       <c r="F36" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H36" s="20"/>
@@ -2926,7 +2983,7 @@
       <c r="F37" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H37" s="20"/>
@@ -2950,7 +3007,7 @@
       <c r="F38" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H38" s="20"/>
@@ -2974,7 +3031,7 @@
       <c r="F39" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H39" s="20"/>
@@ -3822,7 +3879,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3948,110 +4005,230 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="D6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="D14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="D15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -4061,7 +4238,7 @@
       <c r="A17" s="20"/>
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -4071,7 +4248,7 @@
       <c r="A18" s="20"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="20"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -4389,10 +4566,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="D1:D12" xr:uid="{90EA7F15-5B4B-4E66-94FB-3D45D42C0ECA}">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D18 A6:A15" xr:uid="{90EA7F15-5B4B-4E66-94FB-3D45D42C0ECA}">
       <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G24:G25 G27 G3:G12 G29:G32 G45:G46 G52:G54" xr:uid="{FC5D619D-5E49-4E86-BB58-B9F0FAB9D1F1}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G24:G25 G27 G52:G54 G29:G32 G45:G46 G3:G15" xr:uid="{FC5D619D-5E49-4E86-BB58-B9F0FAB9D1F1}">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C52287-2743-4443-9B78-5BBEAA8FE6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B715D395-AF8C-498E-A03F-967ED7059E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$A$1:$H$4</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="148">
   <si>
     <t>Team Name</t>
   </si>
@@ -430,12 +430,6 @@
     <t>Contact the Donor/Orphanage/Delivery/Refugee/Doctor/Teacher/Administrator using Chat</t>
   </si>
   <si>
-    <t>sign in as a delivery guy</t>
-  </si>
-  <si>
-    <t>I can view my delivery portal</t>
-  </si>
-  <si>
     <t xml:space="preserve">view orders ready for delivery </t>
   </si>
   <si>
@@ -454,9 +448,6 @@
     <t>I can reach them</t>
   </si>
   <si>
-    <t xml:space="preserve"> open donor's and receiver's locations</t>
-  </si>
-  <si>
     <t>view collecting donation time</t>
   </si>
   <si>
@@ -469,22 +460,16 @@
     <t>I know when to go to the receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">I receive wages </t>
-  </si>
-  <si>
-    <t>Receive money through the application</t>
-  </si>
-  <si>
-    <t>tick that I received wages through the application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wages delivery is monitored </t>
-  </si>
-  <si>
     <t>tick that I delivered the donation</t>
   </si>
   <si>
     <t>packages delivery is monitored</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> open donor's and receiver's locations using google maps</t>
+  </si>
+  <si>
+    <t>Orphanage/Refugee/Health Sector/ School Sector</t>
   </si>
 </sst>
 </file>
@@ -2092,13 +2077,13 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
@@ -3060,95 +3045,221 @@
       </c>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+    <row r="41" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="9">
+        <v>39</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="11"/>
+    <row r="42" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="9">
+        <v>40</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="11"/>
+    <row r="43" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="9">
+        <v>41</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="11"/>
+    <row r="44" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="9">
+        <v>42</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="11"/>
+    <row r="45" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="9">
+        <v>43</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="11"/>
+    <row r="46" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="9">
+        <v>44</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="10"/>
+    <row r="47" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="9">
+        <v>45</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="9">
+        <v>46</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="9">
+        <v>47</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
@@ -3862,10 +3973,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G12 G17 G23:G28 G32:G39 G42:G120" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G12 G17 G23:G28 G32:G39 G41:G120" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D1:D12 D15 D17 D23:D25 D27 D42:D120" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D12 D15 D17 D23:D25 D27 A41:A47 D41:D47 D50:D120" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3879,7 +3990,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3932,54 +4043,6 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="9">
-        <v>24</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9">
-        <v>31</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="5"/>
-    </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>72</v>
@@ -4005,224 +4068,35 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="17"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>40</v>
-      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="17"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>40</v>
-      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="17"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>40</v>
-      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
@@ -4566,11 +4440,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="D1:D18 A6:A15" xr:uid="{90EA7F15-5B4B-4E66-94FB-3D45D42C0ECA}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G24:G25 G27 G52:G54 G29:G32 G45:G46 G13:G14 G5:G6" xr:uid="{FC5D619D-5E49-4E86-BB58-B9F0FAB9D1F1}">
+      <formula1>"Mobile App,Online Banking Website,Both"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="A6 A13:A14 D13:D14 D16:D18 D1:D2 D5:D6" xr:uid="{90EA7F15-5B4B-4E66-94FB-3D45D42C0ECA}">
       <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G24:G25 G27 G52:G54 G29:G32 G45:G46 G3:G15" xr:uid="{FC5D619D-5E49-4E86-BB58-B9F0FAB9D1F1}">
-      <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B715D395-AF8C-498E-A03F-967ED7059E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113595A2-F210-427D-975A-9A44C3BCC1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
     <sheet name="Functional Requirements Sheet" sheetId="2" r:id="rId2"/>
-    <sheet name="Temp" sheetId="4" r:id="rId3"/>
-    <sheet name="Non-Functional Requirements She" sheetId="3" r:id="rId4"/>
+    <sheet name="Jimmy" sheetId="8" r:id="rId3"/>
+    <sheet name="John" sheetId="7" r:id="rId4"/>
+    <sheet name="Youssef" sheetId="6" r:id="rId5"/>
+    <sheet name="Hazem" sheetId="5" r:id="rId6"/>
+    <sheet name="Mahmoud" sheetId="4" r:id="rId7"/>
+    <sheet name="Non-Functional Requirements She" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Functional Requirements Sheet'!$A$1:$H$4</definedName>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="144">
   <si>
     <t>Team Name</t>
   </si>
@@ -241,21 +245,12 @@
     <t>Refugee</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization </t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
     <t>to view the qualification of the doctor</t>
   </si>
   <si>
     <t>show a short video after the donation</t>
   </si>
   <si>
-    <t>be shown to more donors</t>
-  </si>
-  <si>
     <t>upload my certifications</t>
   </si>
   <si>
@@ -266,9 +261,6 @@
   </si>
   <si>
     <t xml:space="preserve"> i can show the donor the positive impact they done.</t>
-  </si>
-  <si>
-    <t>i can contribute more to my cause.</t>
   </si>
   <si>
     <t xml:space="preserve"> i can be verified.</t>
@@ -646,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -691,7 +683,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,38 +938,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2077,8 +2068,8 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2132,8 +2123,8 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>88</v>
+      <c r="A3" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>13</v>
@@ -2142,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>39</v>
@@ -2150,14 +2141,14 @@
       <c r="F3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>88</v>
+      <c r="A4" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -2166,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>41</v>
@@ -2174,14 +2165,14 @@
       <c r="F4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>88</v>
+      <c r="A5" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>13</v>
@@ -2190,7 +2181,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>44</v>
@@ -2198,14 +2189,14 @@
       <c r="F5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>88</v>
+      <c r="A6" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>13</v>
@@ -2214,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>45</v>
@@ -2222,14 +2213,14 @@
       <c r="F6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>88</v>
+      <c r="A7" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>13</v>
@@ -2238,15 +2229,15 @@
         <v>5</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="10"/>
@@ -2270,7 +2261,7 @@
       <c r="F8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="10"/>
@@ -2294,14 +2285,14 @@
       <c r="F9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>85</v>
+      <c r="A10" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>13</v>
@@ -2310,22 +2301,22 @@
         <v>8</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>88</v>
+      <c r="A11" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>13</v>
@@ -2334,22 +2325,22 @@
         <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>88</v>
+      <c r="A12" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>13</v>
@@ -2358,24 +2349,24 @@
         <v>10</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>115</v>
+      <c r="A13" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>13</v>
@@ -2383,19 +2374,19 @@
       <c r="C13" s="9">
         <v>11</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="20" t="s">
+      <c r="D13" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -2407,22 +2398,22 @@
       <c r="C14" s="9">
         <v>12</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="20" t="s">
+      <c r="D14" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2434,19 +2425,19 @@
       <c r="D15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="20" t="s">
+      <c r="E15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -2455,23 +2446,23 @@
       <c r="C16" s="9">
         <v>14</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>88</v>
+      <c r="A17" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>13</v>
@@ -2480,22 +2471,22 @@
         <v>15</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>120</v>
+      <c r="A18" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>13</v>
@@ -2503,16 +2494,16 @@
       <c r="C18" s="9">
         <v>16</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="D18" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="10"/>
@@ -2527,16 +2518,16 @@
       <c r="C19" s="9">
         <v>17</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="10"/>
@@ -2551,16 +2542,16 @@
       <c r="C20" s="9">
         <v>18</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="10"/>
@@ -2575,23 +2566,23 @@
       <c r="C21" s="9">
         <v>19</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="20" t="s">
+      <c r="D21" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>115</v>
+      <c r="A22" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>13</v>
@@ -2599,22 +2590,22 @@
       <c r="C22" s="9">
         <v>20</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -2624,22 +2615,22 @@
         <v>21</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>115</v>
+      <c r="A24" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>13</v>
@@ -2648,22 +2639,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>88</v>
+      <c r="A25" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>13</v>
@@ -2672,22 +2663,22 @@
         <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>88</v>
+      <c r="A26" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>13</v>
@@ -2695,23 +2686,23 @@
       <c r="C26" s="9">
         <v>24</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="21" t="s">
+      <c r="D26" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>88</v>
+      <c r="A27" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>13</v>
@@ -2720,22 +2711,22 @@
         <v>25</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>128</v>
+      <c r="A28" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>13</v>
@@ -2743,23 +2734,23 @@
       <c r="C28" s="9">
         <v>26</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="21" t="s">
+      <c r="D28" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>88</v>
+      <c r="A29" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>13</v>
@@ -2767,23 +2758,23 @@
       <c r="C29" s="9">
         <v>27</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="20" t="s">
+      <c r="D29" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="20"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>85</v>
+      <c r="A30" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>13</v>
@@ -2791,22 +2782,22 @@
       <c r="C30" s="9">
         <v>28</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="20" t="s">
+      <c r="D30" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="20"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -2815,22 +2806,22 @@
       <c r="C31" s="9">
         <v>29</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="20" t="s">
+      <c r="E31" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="20"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -2839,23 +2830,23 @@
       <c r="C32" s="9">
         <v>30</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" s="21" t="s">
+      <c r="E32" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="20"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>85</v>
+      <c r="A33" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>13</v>
@@ -2863,23 +2854,23 @@
       <c r="C33" s="9">
         <v>31</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="21" t="s">
+      <c r="D33" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="20"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>85</v>
+      <c r="A34" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>13</v>
@@ -2887,23 +2878,23 @@
       <c r="C34" s="9">
         <v>32</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="21" t="s">
+      <c r="D34" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H34" s="20"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>88</v>
+      <c r="A35" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>13</v>
@@ -2911,23 +2902,23 @@
       <c r="C35" s="9">
         <v>33</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="21" t="s">
+      <c r="E35" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="20"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>88</v>
+      <c r="A36" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>13</v>
@@ -2935,23 +2926,23 @@
       <c r="C36" s="9">
         <v>34</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="21" t="s">
+      <c r="E36" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="20"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>88</v>
+      <c r="A37" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>13</v>
@@ -2959,23 +2950,23 @@
       <c r="C37" s="9">
         <v>35</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="21" t="s">
+      <c r="E37" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="20"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>88</v>
+      <c r="A38" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>13</v>
@@ -2983,23 +2974,23 @@
       <c r="C38" s="9">
         <v>36</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" s="21" t="s">
+      <c r="E38" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="20"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>88</v>
+      <c r="A39" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>13</v>
@@ -3007,23 +2998,23 @@
       <c r="C39" s="9">
         <v>37</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="21" t="s">
+      <c r="E39" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>88</v>
+      <c r="A40" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>13</v>
@@ -3031,23 +3022,23 @@
       <c r="C40" s="9">
         <v>38</v>
       </c>
-      <c r="D40" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" s="20" t="s">
+      <c r="D40" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>40</v>
       </c>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>13</v>
@@ -3056,22 +3047,22 @@
         <v>39</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G41" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>13</v>
@@ -3080,22 +3071,22 @@
         <v>40</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>13</v>
@@ -3104,22 +3095,22 @@
         <v>41</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>13</v>
@@ -3128,22 +3119,22 @@
         <v>42</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>13</v>
@@ -3152,22 +3143,22 @@
         <v>43</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G45" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>13</v>
@@ -3176,22 +3167,22 @@
         <v>44</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G46" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>13</v>
@@ -3200,22 +3191,22 @@
         <v>45</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="G47" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>88</v>
+      <c r="A48" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>13</v>
@@ -3223,23 +3214,23 @@
       <c r="C48" s="9">
         <v>46</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="21" t="s">
+      <c r="D48" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>88</v>
+      <c r="A49" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>13</v>
@@ -3247,16 +3238,16 @@
       <c r="C49" s="9">
         <v>47</v>
       </c>
-      <c r="D49" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G49" s="21" t="s">
+      <c r="D49" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="5"/>
@@ -3986,23 +3977,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35DCD16-6828-4540-BD52-03E653D76BE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086498BE-D1BC-43E1-8EF8-AE6C5BD35840}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59" customWidth="1"/>
-    <col min="6" max="6" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59" style="19" customWidth="1"/>
+    <col min="6" max="6" width="48.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -4044,28 +4036,9 @@
       <c r="H2" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="9">
-        <v>26</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="5"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
@@ -4074,7 +4047,7 @@
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4083,360 +4056,1087 @@
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="5"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C35" s="9"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="5"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C36" s="9"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="5"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C37" s="9"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="5"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="9"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="5"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C39" s="9"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="5"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C40" s="9"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="5"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C41" s="9"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="5"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C42" s="9"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="5"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C43" s="9"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="5"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C44" s="9"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="5"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C45" s="9"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="5"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C46" s="9"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="5"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="9"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="5"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" s="9"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="5"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" s="9"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="5"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" s="9"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="5"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C56" s="9"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C57" s="9"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G24:G25 G27 G52:G54 G29:G32 G45:G46 G13:G14 G5:G6" xr:uid="{90EDF19C-C9A3-46A7-A811-7522AF7598B4}">
+      <formula1>"Mobile App,Online Banking Website,Both"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="A6 A13:A14 D13:D14 D16:D18 D1:D2 D5:D6" xr:uid="{FA695087-CAAB-44BA-8963-4991C889A72D}">
+      <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B116834-C546-4D93-81FB-974B91A64D40}">
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59" style="19" customWidth="1"/>
+    <col min="6" max="6" width="48.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="17"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="17"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="9"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="9"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="9"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="9"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="9"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="A6 A13:A14 D13:D14 D16:D18 D1:D2 D5:D6" xr:uid="{78EA9DEA-7538-47EC-A56E-34618FC8FCA7}">
+      <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G24:G25 G27 G52:G54 G29:G32 G45:G46 G13:G14 G5:G6" xr:uid="{1EBB3E81-09AA-429E-A233-FFB41B9DF9F0}">
+      <formula1>"Mobile App,Online Banking Website,Both"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B96A3-91E8-4DFE-91FC-566A12535884}">
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59" style="19" customWidth="1"/>
+    <col min="6" max="6" width="48.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="17"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="17"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="9"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="9"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="9"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="9"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="9"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G24:G25 G27 G52:G54 G29:G32 G45:G46 G13:G14 G5:G6" xr:uid="{A2F2D943-0CA5-4E69-B061-F2F35582D16D}">
+      <formula1>"Mobile App,Online Banking Website,Both"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="A6 A13:A14 D13:D14 D16:D18 D1:D2 D5:D6" xr:uid="{57E0F75C-17F0-4C0A-BA2E-0B179AF60C19}">
+      <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E74B3-153E-4854-9244-5275CC9EA2AF}">
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59" style="19" customWidth="1"/>
+    <col min="6" max="6" width="48.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="17"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="17"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="9"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="9"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="9"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="9"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="9"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="A6 A13:A14 D13:D14 D16:D18 D1:D2 D5:D6" xr:uid="{3F1D5435-FFD8-4683-855C-8F2A2FD0328E}">
+      <formula1>"client,banker,admin,client/banker,banker/admin,client/admin,client/banker/admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G24:G25 G27 G52:G54 G29:G32 G45:G46 G13:G14 G5:G6" xr:uid="{3CBF6EDF-387D-4D09-95CC-896F7589EA79}">
+      <formula1>"Mobile App,Online Banking Website,Both"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35DCD16-6828-4540-BD52-03E653D76BE9}">
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59" style="19" customWidth="1"/>
+    <col min="6" max="6" width="48.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="17"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="17"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="9"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="9"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="9"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="9"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4451,7 +5151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\dora-the-explorer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hazem\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113595A2-F210-427D-975A-9A44C3BCC1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4CD75E-5134-441F-B938-A0E76CB75E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="162">
   <si>
     <t>Team Name</t>
   </si>
@@ -462,6 +462,60 @@
   </si>
   <si>
     <t>Orphanage/Refugee/Health Sector/ School Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School sector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">show different educational program depending on the grade </t>
+  </si>
+  <si>
+    <t>people can see what the kids will learn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a checklist for multiple school suplies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">people can specify their needs and I can arrange my stock </t>
+  </si>
+  <si>
+    <t>people can see if the item that they are looking for is available</t>
+  </si>
+  <si>
+    <t>School sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show the suplies that I have in stock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we can discuss their needs in terms of school suplies </t>
+  </si>
+  <si>
+    <t>the student will be able to comfortably follow the course without difficulties</t>
+  </si>
+  <si>
+    <t>Show the different school suplies the student will need depending on the course he/she takes</t>
+  </si>
+  <si>
+    <t>people can see if the specific book that they have in mind is available</t>
+  </si>
+  <si>
+    <t>Show the different books I have in store.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> be able to communicate with people through comment section or chat </t>
+  </si>
+  <si>
+    <t>be able to communicat through a comment section or a chat</t>
+  </si>
+  <si>
+    <t>I can talk with people about what they need in terms of books for school</t>
   </si>
 </sst>
 </file>
@@ -708,7 +762,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -931,13 +985,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -945,25 +999,25 @@
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>18</v>
       </c>
@@ -971,7 +1025,7 @@
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -985,7 +1039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -999,7 +1053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1013,7 +1067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1027,7 +1081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -1041,7 +1095,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -1055,998 +1109,998 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
@@ -2068,23 +2122,23 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="83" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="54.88671875" customWidth="1"/>
+    <col min="8" max="8" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -2104,7 +2158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2122,7 +2176,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>84</v>
       </c>
@@ -2146,7 +2200,7 @@
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>84</v>
       </c>
@@ -2170,7 +2224,7 @@
       </c>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>84</v>
       </c>
@@ -2194,7 +2248,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>84</v>
       </c>
@@ -2218,7 +2272,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>84</v>
       </c>
@@ -2242,7 +2296,7 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
@@ -2266,7 +2320,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>54</v>
       </c>
@@ -2290,7 +2344,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>81</v>
       </c>
@@ -2314,7 +2368,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>84</v>
       </c>
@@ -2338,7 +2392,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>84</v>
       </c>
@@ -2364,7 +2418,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>111</v>
       </c>
@@ -2388,7 +2442,7 @@
       </c>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>54</v>
       </c>
@@ -2412,7 +2466,7 @@
       </c>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>38</v>
       </c>
@@ -2436,7 +2490,7 @@
       </c>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>70</v>
       </c>
@@ -2460,7 +2514,7 @@
       </c>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>84</v>
       </c>
@@ -2484,7 +2538,7 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>116</v>
       </c>
@@ -2508,7 +2562,7 @@
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>54</v>
       </c>
@@ -2532,7 +2586,7 @@
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>54</v>
       </c>
@@ -2556,7 +2610,7 @@
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>54</v>
       </c>
@@ -2580,7 +2634,7 @@
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>111</v>
       </c>
@@ -2604,7 +2658,7 @@
       </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>54</v>
       </c>
@@ -2628,7 +2682,7 @@
       </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>111</v>
       </c>
@@ -2652,7 +2706,7 @@
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>84</v>
       </c>
@@ -2676,7 +2730,7 @@
       </c>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>84</v>
       </c>
@@ -2700,7 +2754,7 @@
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>84</v>
       </c>
@@ -2724,7 +2778,7 @@
       </c>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>124</v>
       </c>
@@ -2748,7 +2802,7 @@
       </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>84</v>
       </c>
@@ -2772,7 +2826,7 @@
       </c>
       <c r="H29" s="19"/>
     </row>
-    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>81</v>
       </c>
@@ -2796,7 +2850,7 @@
       </c>
       <c r="H30" s="19"/>
     </row>
-    <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>70</v>
       </c>
@@ -2820,7 +2874,7 @@
       </c>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>70</v>
       </c>
@@ -2844,7 +2898,7 @@
       </c>
       <c r="H32" s="19"/>
     </row>
-    <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>81</v>
       </c>
@@ -2868,7 +2922,7 @@
       </c>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>81</v>
       </c>
@@ -2892,7 +2946,7 @@
       </c>
       <c r="H34" s="19"/>
     </row>
-    <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>84</v>
       </c>
@@ -2916,7 +2970,7 @@
       </c>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>84</v>
       </c>
@@ -2940,7 +2994,7 @@
       </c>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>84</v>
       </c>
@@ -2964,7 +3018,7 @@
       </c>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>84</v>
       </c>
@@ -2988,7 +3042,7 @@
       </c>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>84</v>
       </c>
@@ -3012,7 +3066,7 @@
       </c>
       <c r="H39" s="19"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>84</v>
       </c>
@@ -3036,7 +3090,7 @@
       </c>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>81</v>
       </c>
@@ -3060,7 +3114,7 @@
       </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>81</v>
       </c>
@@ -3084,7 +3138,7 @@
       </c>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>81</v>
       </c>
@@ -3108,7 +3162,7 @@
       </c>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>81</v>
       </c>
@@ -3132,7 +3186,7 @@
       </c>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>81</v>
       </c>
@@ -3156,7 +3210,7 @@
       </c>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>81</v>
       </c>
@@ -3180,7 +3234,7 @@
       </c>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>81</v>
       </c>
@@ -3204,7 +3258,7 @@
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>84</v>
       </c>
@@ -3228,7 +3282,7 @@
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>84</v>
       </c>
@@ -3252,7 +3306,7 @@
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -3262,7 +3316,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -3272,7 +3326,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -3282,7 +3336,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -3292,7 +3346,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -3302,7 +3356,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -3312,7 +3366,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -3322,7 +3376,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -3332,7 +3386,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -3342,7 +3396,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -3352,7 +3406,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -3362,7 +3416,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -3372,7 +3426,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -3382,7 +3436,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -3392,7 +3446,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -3402,7 +3456,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -3412,7 +3466,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -3422,7 +3476,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -3432,7 +3486,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -3442,7 +3496,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -3452,7 +3506,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -3462,7 +3516,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -3472,7 +3526,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -3482,7 +3536,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -3492,7 +3546,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -3502,7 +3556,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -3512,7 +3566,7 @@
       <c r="G75" s="11"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -3522,7 +3576,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -3532,7 +3586,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -3542,7 +3596,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -3552,7 +3606,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -3562,7 +3616,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -3572,7 +3626,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -3582,7 +3636,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -3592,7 +3646,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -3602,7 +3656,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -3612,7 +3666,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -3622,7 +3676,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -3632,7 +3686,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -3642,7 +3696,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -3652,7 +3706,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -3662,7 +3716,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -3672,7 +3726,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -3682,7 +3736,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -3692,7 +3746,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -3702,7 +3756,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -3712,7 +3766,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -3722,7 +3776,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -3732,7 +3786,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -3742,7 +3796,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -3752,7 +3806,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3762,7 +3816,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -3772,7 +3826,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -3782,7 +3836,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -3792,7 +3846,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -3802,7 +3856,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -3812,7 +3866,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -3822,7 +3876,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -3832,7 +3886,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -3842,7 +3896,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -3852,7 +3906,7 @@
       <c r="G109" s="11"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -3862,7 +3916,7 @@
       <c r="G110" s="11"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -3872,7 +3926,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -3882,7 +3936,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -3892,7 +3946,7 @@
       <c r="G113" s="11"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -3902,7 +3956,7 @@
       <c r="G114" s="11"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -3912,7 +3966,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -3922,7 +3976,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -3932,7 +3986,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -3942,7 +3996,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -3952,7 +4006,7 @@
       <c r="G119" s="11"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -3984,20 +4038,20 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59" style="19" customWidth="1"/>
-    <col min="6" max="6" width="48.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="6" max="6" width="48.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -4017,7 +4071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -4035,12 +4089,12 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="9"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="10"/>
       <c r="C6" s="9"/>
@@ -4050,152 +4104,152 @@
       <c r="G6" s="20"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="17"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="17"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
       <c r="G25" s="20"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C41" s="9"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C42" s="9"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C45" s="9"/>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C46" s="9"/>
       <c r="G46" s="20"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C52" s="9"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C53" s="9"/>
       <c r="G53" s="20"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C54" s="9"/>
       <c r="G54" s="20"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C55" s="9"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C57" s="9"/>
     </row>
   </sheetData>
@@ -4219,20 +4273,20 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59" style="19" customWidth="1"/>
-    <col min="6" max="6" width="48.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="6" max="6" width="48.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -4252,7 +4306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -4270,12 +4324,12 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="9"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="10"/>
       <c r="C6" s="9"/>
@@ -4285,152 +4339,152 @@
       <c r="G6" s="20"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="17"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="17"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
       <c r="G25" s="20"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C41" s="9"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C42" s="9"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C45" s="9"/>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C46" s="9"/>
       <c r="G46" s="20"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C52" s="9"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C53" s="9"/>
       <c r="G53" s="20"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C54" s="9"/>
       <c r="G54" s="20"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C55" s="9"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C57" s="9"/>
     </row>
   </sheetData>
@@ -4450,24 +4504,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B96A3-91E8-4DFE-91FC-566A12535884}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59" style="19" customWidth="1"/>
-    <col min="6" max="6" width="48.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="6" max="6" width="48.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -4487,7 +4541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -4505,12 +4559,12 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="9"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="10"/>
       <c r="C6" s="9"/>
@@ -4520,152 +4574,152 @@
       <c r="G6" s="20"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="17"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="17"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
       <c r="G25" s="20"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C41" s="9"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C42" s="9"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C45" s="9"/>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C46" s="9"/>
       <c r="G46" s="20"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C52" s="9"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C53" s="9"/>
       <c r="G53" s="20"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C54" s="9"/>
       <c r="G54" s="20"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C55" s="9"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C57" s="9"/>
     </row>
   </sheetData>
@@ -4685,24 +4739,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E74B3-153E-4854-9244-5275CC9EA2AF}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59" style="19" customWidth="1"/>
-    <col min="6" max="6" width="48.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="5" max="5" width="77.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="64.42578125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -4722,7 +4776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -4740,167 +4794,257 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="B5" s="10"/>
       <c r="C5" s="9"/>
+      <c r="D5" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="B6" s="10"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="G6" s="20"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="17"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="17"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
       <c r="G25" s="20"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C41" s="9"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C42" s="9"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C45" s="9"/>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C46" s="9"/>
       <c r="G46" s="20"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C52" s="9"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C53" s="9"/>
       <c r="G53" s="20"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C54" s="9"/>
       <c r="G54" s="20"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C55" s="9"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C57" s="9"/>
     </row>
   </sheetData>
@@ -4924,20 +5068,20 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59" style="19" customWidth="1"/>
-    <col min="6" max="6" width="48.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="6" max="6" width="48.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -4957,7 +5101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -4975,12 +5119,12 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="9"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="10"/>
       <c r="C6" s="9"/>
@@ -4990,152 +5134,152 @@
       <c r="G6" s="20"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="17"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="17"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
       <c r="G25" s="20"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C41" s="9"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C42" s="9"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C45" s="9"/>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C46" s="9"/>
       <c r="G46" s="20"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C52" s="9"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C53" s="9"/>
       <c r="G53" s="20"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C54" s="9"/>
       <c r="G54" s="20"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C55" s="9"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C57" s="9"/>
     </row>
   </sheetData>
@@ -5162,16 +5306,16 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="93.33203125" customWidth="1"/>
-    <col min="4" max="4" width="118.5546875" customWidth="1"/>
-    <col min="5" max="5" width="51.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="93.28515625" customWidth="1"/>
+    <col min="4" max="4" width="118.5703125" customWidth="1"/>
+    <col min="5" max="5" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -5208,7 +5352,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -5235,7 +5379,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -5262,7 +5406,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -5289,7 +5433,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5316,7 +5460,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -5343,7 +5487,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -5370,7 +5514,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -5397,7 +5541,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -5424,7 +5568,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -5451,7 +5595,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5478,7 +5622,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5505,7 +5649,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5532,7 +5676,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5559,7 +5703,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5586,7 +5730,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5613,7 +5757,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5640,7 +5784,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5667,7 +5811,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5694,7 +5838,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5721,7 +5865,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5748,7 +5892,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5775,7 +5919,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -5802,7 +5946,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5829,7 +5973,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5856,7 +6000,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5883,7 +6027,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5910,7 +6054,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5937,7 +6081,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5964,7 +6108,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5991,7 +6135,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6018,7 +6162,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6045,7 +6189,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6072,7 +6216,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6099,7 +6243,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -6126,7 +6270,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6153,7 +6297,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6180,7 +6324,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -6207,7 +6351,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6234,7 +6378,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -6261,7 +6405,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6288,7 +6432,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -6315,7 +6459,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -6342,7 +6486,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -6369,7 +6513,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -6396,7 +6540,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -6423,7 +6567,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -6450,7 +6594,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -6477,7 +6621,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -6504,7 +6648,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -6531,7 +6675,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6558,7 +6702,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6585,7 +6729,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -6612,7 +6756,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -6639,7 +6783,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -6666,7 +6810,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -6693,7 +6837,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -6720,7 +6864,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -6747,7 +6891,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -6774,7 +6918,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6801,7 +6945,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -6828,7 +6972,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -6855,7 +6999,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -6882,7 +7026,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -6909,7 +7053,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -6936,7 +7080,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -6963,7 +7107,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -6990,7 +7134,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -7017,7 +7161,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -7044,7 +7188,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -7071,7 +7215,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -7098,7 +7242,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -7125,7 +7269,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -7152,7 +7296,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -7179,7 +7323,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -7206,7 +7350,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -7233,7 +7377,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -7260,7 +7404,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -7287,7 +7431,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -7314,7 +7458,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -7341,7 +7485,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -7368,7 +7512,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -7395,7 +7539,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -7422,7 +7566,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -7449,7 +7593,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -7476,7 +7620,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -7503,7 +7647,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -7530,7 +7674,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -7557,7 +7701,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -7584,7 +7728,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -7611,7 +7755,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -7638,7 +7782,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -7665,7 +7809,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -7692,7 +7836,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -7719,7 +7863,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -7746,7 +7890,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -7773,7 +7917,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -7800,7 +7944,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -7827,7 +7971,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -7854,7 +7998,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7881,7 +8025,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -7908,7 +8052,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -7935,7 +8079,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7962,7 +8106,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7989,7 +8133,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -8016,7 +8160,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -8043,7 +8187,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -8070,7 +8214,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -8097,7 +8241,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -8124,7 +8268,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -8151,7 +8295,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -8178,7 +8322,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -8205,7 +8349,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -8232,7 +8376,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -8259,7 +8403,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -8286,7 +8430,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -8313,7 +8457,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -8340,7 +8484,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -8367,7 +8511,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -8394,7 +8538,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -8421,7 +8565,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -8448,7 +8592,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -8475,7 +8619,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -8502,7 +8646,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8529,7 +8673,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -8556,7 +8700,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -8583,7 +8727,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8610,7 +8754,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -8637,7 +8781,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -8664,7 +8808,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -8691,7 +8835,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -8718,7 +8862,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -8745,7 +8889,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -8772,7 +8916,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8799,7 +8943,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8826,7 +8970,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -8853,7 +8997,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8880,7 +9024,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -8907,7 +9051,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -8934,7 +9078,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -8961,7 +9105,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -8988,7 +9132,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -9015,7 +9159,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -9042,7 +9186,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9069,7 +9213,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -9096,7 +9240,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -9123,7 +9267,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -9150,7 +9294,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9177,7 +9321,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9204,7 +9348,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -9231,7 +9375,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -9258,7 +9402,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -9285,7 +9429,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -9312,7 +9456,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -9339,7 +9483,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -9366,7 +9510,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -9393,7 +9537,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -9420,7 +9564,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -9447,7 +9591,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -9474,7 +9618,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -9501,7 +9645,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -9528,7 +9672,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -9555,7 +9699,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -9582,7 +9726,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -9609,7 +9753,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -9636,7 +9780,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -9663,7 +9807,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -9690,7 +9834,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -9717,7 +9861,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -9744,7 +9888,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -9771,7 +9915,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -9798,7 +9942,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -9825,7 +9969,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -9852,7 +9996,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -9879,7 +10023,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -9906,7 +10050,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -9933,7 +10077,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -9960,7 +10104,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -9987,7 +10131,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -10014,7 +10158,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -10041,7 +10185,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -10068,7 +10212,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -10095,7 +10239,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -10122,7 +10266,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -10149,7 +10293,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -10176,7 +10320,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -10203,7 +10347,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -10230,7 +10374,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -10257,7 +10401,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -10284,7 +10428,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -10311,7 +10455,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -10338,7 +10482,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -10365,7 +10509,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -10392,7 +10536,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -10419,7 +10563,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -10446,7 +10590,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -10473,7 +10617,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -10500,7 +10644,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -10527,7 +10671,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -10554,7 +10698,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -10581,7 +10725,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -10608,7 +10752,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -10635,7 +10779,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -10662,7 +10806,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -10689,7 +10833,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -10716,7 +10860,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -10743,7 +10887,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -10770,7 +10914,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -10797,7 +10941,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -10824,7 +10968,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -10851,7 +10995,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -10878,7 +11022,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -10905,7 +11049,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -10932,7 +11076,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -10959,7 +11103,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -10986,7 +11130,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -11013,7 +11157,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -11040,7 +11184,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -11067,7 +11211,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -11094,7 +11238,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -11121,786 +11265,786 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CSEN603 - RequirementsTemplateM1.xlsx
+++ b/CSEN603 - RequirementsTemplateM1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hazem\Documents\GitHub\dora-the-explorer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahmoud\Documents\GitHub\dora-the-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4CD75E-5134-441F-B938-A0E76CB75E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EC3ABF-8A12-4013-A00C-ED47AA93FA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="164">
   <si>
     <t>Team Name</t>
   </si>
@@ -516,6 +516,12 @@
   </si>
   <si>
     <t>I can talk with people about what they need in terms of books for school</t>
+  </si>
+  <si>
+    <t>create detailed profile for orphans</t>
+  </si>
+  <si>
+    <t>i can make donors empathize more</t>
   </si>
 </sst>
 </file>
@@ -762,7 +768,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -985,13 +991,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -999,25 +1005,25 @@
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>18</v>
       </c>
@@ -1025,7 +1031,7 @@
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -1109,998 +1115,998 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.7